--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_1_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_1_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110113.1397462431</v>
+        <v>135262.9261601899</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>263579.2467736143</v>
+        <v>382693.7068900301</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27256749.52901259</v>
+        <v>26896114.22546831</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3824061.686878462</v>
+        <v>3957397.277440492</v>
       </c>
     </row>
     <row r="11">
@@ -8699,7 +8701,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>113.7102003471159</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O11" t="n">
         <v>99.00804712831379</v>
@@ -8772,19 +8774,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L12" t="n">
-        <v>73.99276488738508</v>
+        <v>57.07593346819701</v>
       </c>
       <c r="M12" t="n">
-        <v>57.75069317402355</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N12" t="n">
-        <v>37.99368400879879</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O12" t="n">
-        <v>67.58149565199844</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P12" t="n">
-        <v>82.80031984638364</v>
+        <v>67.92252959633598</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8936,7 +8938,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>113.7102003471159</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O14" t="n">
         <v>99.00804712831379</v>
@@ -9009,19 +9011,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L15" t="n">
-        <v>73.99276488738508</v>
+        <v>57.07593346819701</v>
       </c>
       <c r="M15" t="n">
-        <v>57.75069317402355</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N15" t="n">
-        <v>37.99368400879879</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O15" t="n">
-        <v>67.58149565199844</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P15" t="n">
-        <v>82.80031984638364</v>
+        <v>67.92252959633598</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9173,7 +9175,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>113.7102003471159</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O17" t="n">
         <v>99.00804712831379</v>
@@ -9246,19 +9248,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L18" t="n">
-        <v>73.99276488738508</v>
+        <v>57.07593346819701</v>
       </c>
       <c r="M18" t="n">
-        <v>57.75069317402355</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N18" t="n">
-        <v>37.99368400879879</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O18" t="n">
-        <v>67.58149565199844</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P18" t="n">
-        <v>82.80031984638364</v>
+        <v>67.92252959633598</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9410,7 +9412,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>113.7102003471159</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O20" t="n">
         <v>99.00804712831379</v>
@@ -9483,19 +9485,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L21" t="n">
-        <v>73.99276488738508</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M21" t="n">
-        <v>57.75069317402355</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N21" t="n">
-        <v>37.99368400879879</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O21" t="n">
-        <v>67.58149565199844</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P21" t="n">
-        <v>82.80031984638364</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9647,7 +9649,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>113.7102003471159</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O23" t="n">
         <v>99.00804712831379</v>
@@ -9720,19 +9722,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L24" t="n">
-        <v>73.99276488738508</v>
+        <v>57.07593346819701</v>
       </c>
       <c r="M24" t="n">
-        <v>57.75069317402355</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N24" t="n">
-        <v>37.99368400879879</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O24" t="n">
-        <v>67.58149565199844</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P24" t="n">
-        <v>82.80031984638364</v>
+        <v>67.92252959633598</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9884,7 +9886,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>113.7102003471159</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O26" t="n">
         <v>99.00804712831379</v>
@@ -9957,19 +9959,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L27" t="n">
-        <v>73.99276488738508</v>
+        <v>57.07593346819701</v>
       </c>
       <c r="M27" t="n">
-        <v>57.75069317402355</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N27" t="n">
-        <v>37.99368400879879</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O27" t="n">
-        <v>67.58149565199844</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P27" t="n">
-        <v>82.80031984638364</v>
+        <v>67.92252959633598</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10121,7 +10123,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>113.7102003471159</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O29" t="n">
         <v>99.00804712831379</v>
@@ -10194,19 +10196,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L30" t="n">
-        <v>73.99276488738511</v>
+        <v>57.07593346819701</v>
       </c>
       <c r="M30" t="n">
-        <v>57.75069317402358</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N30" t="n">
-        <v>37.99368400879879</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O30" t="n">
-        <v>67.58149565199844</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P30" t="n">
-        <v>82.80031984638366</v>
+        <v>67.92252959633598</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10358,7 +10360,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>113.7102003471159</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O32" t="n">
         <v>99.00804712831379</v>
@@ -10431,19 +10433,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L33" t="n">
-        <v>73.99276488738508</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M33" t="n">
-        <v>57.75069317402355</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N33" t="n">
-        <v>37.99368400879879</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O33" t="n">
-        <v>67.58149565199844</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P33" t="n">
-        <v>82.80031984638364</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10595,7 +10597,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>113.7102003471159</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O35" t="n">
         <v>99.00804712831379</v>
@@ -10668,19 +10670,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L36" t="n">
-        <v>73.99276488738508</v>
+        <v>57.07593346819701</v>
       </c>
       <c r="M36" t="n">
-        <v>57.75069317402355</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N36" t="n">
-        <v>37.99368400879879</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O36" t="n">
-        <v>67.58149565199844</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P36" t="n">
-        <v>82.80031984638364</v>
+        <v>67.92252959633598</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10832,7 +10834,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>113.7102003471159</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O38" t="n">
         <v>99.00804712831379</v>
@@ -10905,19 +10907,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L39" t="n">
-        <v>73.99276488738508</v>
+        <v>57.07593346819701</v>
       </c>
       <c r="M39" t="n">
-        <v>57.75069317402355</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N39" t="n">
-        <v>37.99368400879879</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O39" t="n">
-        <v>67.58149565199844</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P39" t="n">
-        <v>82.80031984638364</v>
+        <v>67.92252959633598</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11069,7 +11071,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>113.7102003471159</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O41" t="n">
         <v>99.00804712831379</v>
@@ -11142,19 +11144,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L42" t="n">
-        <v>73.99276488738508</v>
+        <v>57.07593346819701</v>
       </c>
       <c r="M42" t="n">
-        <v>57.75069317402355</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N42" t="n">
-        <v>37.99368400879879</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O42" t="n">
-        <v>67.58149565199844</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P42" t="n">
-        <v>82.80031984638364</v>
+        <v>67.92252959633598</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11306,7 +11308,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>113.7102003471159</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O44" t="n">
         <v>99.00804712831379</v>
@@ -11379,19 +11381,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L45" t="n">
-        <v>73.99276488738508</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M45" t="n">
-        <v>57.75069317402355</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N45" t="n">
-        <v>37.99368400879879</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O45" t="n">
-        <v>67.58149565199844</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P45" t="n">
-        <v>82.80031984638364</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -23033,49 +23035,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>423.10545754068</v>
+        <v>423.590221574262</v>
       </c>
       <c r="H8" t="n">
-        <v>359.1318389177005</v>
+        <v>364.0964285766221</v>
       </c>
       <c r="I8" t="n">
-        <v>288.9412856579506</v>
+        <v>307.6301510626203</v>
       </c>
       <c r="J8" t="n">
-        <v>179.6707740303099</v>
+        <v>220.8145154255395</v>
       </c>
       <c r="K8" t="n">
-        <v>175.9397969480259</v>
+        <v>237.6035998847812</v>
       </c>
       <c r="L8" t="n">
-        <v>159.717065880999</v>
+        <v>236.2164661104893</v>
       </c>
       <c r="M8" t="n">
-        <v>134.8875247750459</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N8" t="n">
-        <v>135.3087467407796</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O8" t="n">
-        <v>155.8333010127153</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P8" t="n">
-        <v>184.8009181833638</v>
+        <v>254.5105921674962</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.5711118383298</v>
+        <v>269.9201738698072</v>
       </c>
       <c r="R8" t="n">
-        <v>267.7565211616979</v>
+        <v>298.2075798861928</v>
       </c>
       <c r="S8" t="n">
-        <v>256.3431896310585</v>
+        <v>267.3897500463082</v>
       </c>
       <c r="T8" t="n">
-        <v>223.3923438097795</v>
+        <v>225.5143983667847</v>
       </c>
       <c r="U8" t="n">
-        <v>248.8628244140534</v>
+        <v>248.90160553674</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23112,49 +23114,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>161.5098242651302</v>
+        <v>161.7691958893245</v>
       </c>
       <c r="H9" t="n">
-        <v>142.5296416080314</v>
+        <v>145.0346254522244</v>
       </c>
       <c r="I9" t="n">
-        <v>133.9886669741497</v>
+        <v>142.9187864913679</v>
       </c>
       <c r="J9" t="n">
-        <v>128.2114292993411</v>
+        <v>152.7163598114938</v>
       </c>
       <c r="K9" t="n">
-        <v>90.94931354355442</v>
+        <v>132.8321428767296</v>
       </c>
       <c r="L9" t="n">
-        <v>49.90065794854366</v>
+        <v>106.2172906491666</v>
       </c>
       <c r="M9" t="n">
-        <v>21.06885395828317</v>
+        <v>86.78770803595184</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>67.45823659255106</v>
       </c>
       <c r="O9" t="n">
-        <v>44.43169704212175</v>
+        <v>106.1428044880503</v>
       </c>
       <c r="P9" t="n">
-        <v>63.60864672438022</v>
+        <v>113.1372509970743</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.9946894800436</v>
+        <v>150.1032497894857</v>
       </c>
       <c r="R9" t="n">
-        <v>185.1168477994441</v>
+        <v>201.2206403963539</v>
       </c>
       <c r="S9" t="n">
-        <v>217.2142651104902</v>
+        <v>222.0319792704162</v>
       </c>
       <c r="T9" t="n">
-        <v>232.0899195853727</v>
+        <v>233.1353692460508</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6821109131418</v>
+        <v>249.6991748357862</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23191,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.6492538260798</v>
+        <v>169.8667022829468</v>
       </c>
       <c r="H10" t="n">
-        <v>171.2662172681476</v>
+        <v>173.1995317301106</v>
       </c>
       <c r="I10" t="n">
-        <v>180.2118771903329</v>
+        <v>186.7511453295697</v>
       </c>
       <c r="J10" t="n">
-        <v>161.6117752107116</v>
+        <v>176.9853811112088</v>
       </c>
       <c r="K10" t="n">
-        <v>135.6649537451591</v>
+        <v>160.9285108247983</v>
       </c>
       <c r="L10" t="n">
-        <v>122.6967615368433</v>
+        <v>155.0254166605068</v>
       </c>
       <c r="M10" t="n">
-        <v>122.6804131709369</v>
+        <v>156.7664471869165</v>
       </c>
       <c r="N10" t="n">
-        <v>108.7919580877318</v>
+        <v>142.0675024008435</v>
       </c>
       <c r="O10" t="n">
-        <v>129.3665032546162</v>
+        <v>160.1018542306906</v>
       </c>
       <c r="P10" t="n">
-        <v>140.0260970042402</v>
+        <v>166.3254994602277</v>
       </c>
       <c r="Q10" t="n">
-        <v>186.3785526484676</v>
+        <v>204.5868957048492</v>
       </c>
       <c r="R10" t="n">
-        <v>239.7076266214307</v>
+        <v>249.4848999638325</v>
       </c>
       <c r="S10" t="n">
-        <v>250.9220993726962</v>
+        <v>254.7116329346421</v>
       </c>
       <c r="T10" t="n">
-        <v>219.8592750565288</v>
+        <v>220.7883730085969</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2422093919635</v>
+        <v>291.2540702168835</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23270,49 +23272,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>422.4828842901392</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H11" t="n">
-        <v>352.7559106155991</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I11" t="n">
-        <v>264.9395304164745</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J11" t="n">
-        <v>126.8306476072186</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K11" t="n">
-        <v>96.74614482954047</v>
+        <v>78.22308851520964</v>
       </c>
       <c r="L11" t="n">
-        <v>61.47033764627412</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M11" t="n">
-        <v>25.56910949601522</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>24.2214452136497</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>50.93671224565088</v>
+        <v>26.40184904719007</v>
       </c>
       <c r="P11" t="n">
-        <v>95.27410653902663</v>
+        <v>74.33416843326194</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3402047289868</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R11" t="n">
-        <v>228.6488042124114</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S11" t="n">
-        <v>242.1563016843589</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T11" t="n">
-        <v>220.6670294055369</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U11" t="n">
-        <v>248.8130185540101</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23349,19 +23351,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>161.176718209428</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H12" t="n">
-        <v>139.3125383858557</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I12" t="n">
-        <v>122.5198839159847</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J12" t="n">
-        <v>96.74021199285306</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K12" t="n">
-        <v>37.15999050502471</v>
+        <v>24.57889804244017</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.4739936679631</v>
+        <v>64.52858488856607</v>
       </c>
       <c r="R12" t="n">
-        <v>164.4350525164654</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S12" t="n">
-        <v>211.0269662249707</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T12" t="n">
-        <v>230.7472684222575</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6601960410561</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23428,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.3699888987368</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7832981868615</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I13" t="n">
-        <v>171.8136191935084</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J13" t="n">
-        <v>141.8677448475604</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K13" t="n">
-        <v>103.2194467320342</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L13" t="n">
-        <v>81.17768315713714</v>
+        <v>71.46654840866279</v>
       </c>
       <c r="M13" t="n">
-        <v>78.90436642388586</v>
+        <v>68.6653364331837</v>
       </c>
       <c r="N13" t="n">
-        <v>66.0568078880501</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O13" t="n">
-        <v>89.89367516071431</v>
+        <v>80.66114959698194</v>
       </c>
       <c r="P13" t="n">
-        <v>106.2502734281359</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q13" t="n">
-        <v>162.9939231415902</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R13" t="n">
-        <v>227.150859979262</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S13" t="n">
-        <v>246.0552733207275</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6660521851541</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U13" t="n">
-        <v>291.226976759563</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23507,49 +23509,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>422.4828842901392</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H14" t="n">
-        <v>352.7559106155991</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I14" t="n">
-        <v>264.9395304164745</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J14" t="n">
-        <v>126.8306476072186</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K14" t="n">
-        <v>96.74614482954047</v>
+        <v>78.22308851520964</v>
       </c>
       <c r="L14" t="n">
-        <v>61.47033764627412</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M14" t="n">
-        <v>25.56910949601522</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>24.2214452136497</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>50.93671224565088</v>
+        <v>26.40184904719007</v>
       </c>
       <c r="P14" t="n">
-        <v>95.27410653902663</v>
+        <v>74.33416843326194</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3402047289868</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R14" t="n">
-        <v>228.6488042124114</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S14" t="n">
-        <v>242.1563016843589</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T14" t="n">
-        <v>220.6670294055369</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U14" t="n">
-        <v>248.8130185540101</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23586,19 +23588,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>161.176718209428</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H15" t="n">
-        <v>139.3125383858557</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I15" t="n">
-        <v>122.5198839159847</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J15" t="n">
-        <v>96.74021199285306</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K15" t="n">
-        <v>37.15999050502471</v>
+        <v>24.57889804244017</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.4739936679631</v>
+        <v>64.52858488856607</v>
       </c>
       <c r="R15" t="n">
-        <v>164.4350525164654</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S15" t="n">
-        <v>211.0269662249707</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T15" t="n">
-        <v>230.7472684222575</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6601960410561</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23665,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.3699888987368</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H16" t="n">
-        <v>168.7832981868615</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I16" t="n">
-        <v>171.8136191935084</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J16" t="n">
-        <v>141.8677448475604</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K16" t="n">
-        <v>103.2194467320342</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L16" t="n">
-        <v>81.17768315713714</v>
+        <v>71.46654840866279</v>
       </c>
       <c r="M16" t="n">
-        <v>78.90436642388586</v>
+        <v>68.6653364331837</v>
       </c>
       <c r="N16" t="n">
-        <v>66.0568078880501</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O16" t="n">
-        <v>89.89367516071431</v>
+        <v>80.66114959698194</v>
       </c>
       <c r="P16" t="n">
-        <v>106.2502734281359</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q16" t="n">
-        <v>162.9939231415902</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R16" t="n">
-        <v>227.150859979262</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S16" t="n">
-        <v>246.0552733207275</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T16" t="n">
-        <v>218.6660521851541</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U16" t="n">
-        <v>291.226976759563</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23744,49 +23746,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>422.4828842901392</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H17" t="n">
-        <v>352.7559106155991</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I17" t="n">
-        <v>264.9395304164745</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J17" t="n">
-        <v>126.8306476072186</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K17" t="n">
-        <v>96.74614482954047</v>
+        <v>78.22308851520964</v>
       </c>
       <c r="L17" t="n">
-        <v>61.47033764627412</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M17" t="n">
-        <v>25.56910949601522</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>24.2214452136497</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>50.93671224565088</v>
+        <v>26.40184904719007</v>
       </c>
       <c r="P17" t="n">
-        <v>95.27410653902663</v>
+        <v>74.33416843326194</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3402047289868</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R17" t="n">
-        <v>228.6488042124114</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S17" t="n">
-        <v>242.1563016843589</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T17" t="n">
-        <v>220.6670294055369</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U17" t="n">
-        <v>248.8130185540101</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23823,19 +23825,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>161.176718209428</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H18" t="n">
-        <v>139.3125383858557</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I18" t="n">
-        <v>122.5198839159847</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J18" t="n">
-        <v>96.74021199285306</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K18" t="n">
-        <v>37.15999050502471</v>
+        <v>24.57889804244017</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.4739936679631</v>
+        <v>64.52858488856607</v>
       </c>
       <c r="R18" t="n">
-        <v>164.4350525164654</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S18" t="n">
-        <v>211.0269662249707</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T18" t="n">
-        <v>230.7472684222575</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6601960410561</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23902,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.3699888987368</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H19" t="n">
-        <v>168.7832981868615</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I19" t="n">
-        <v>171.8136191935084</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J19" t="n">
-        <v>141.8677448475604</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K19" t="n">
-        <v>103.2194467320342</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L19" t="n">
-        <v>81.17768315713714</v>
+        <v>71.46654840866279</v>
       </c>
       <c r="M19" t="n">
-        <v>78.90436642388586</v>
+        <v>68.6653364331837</v>
       </c>
       <c r="N19" t="n">
-        <v>66.0568078880501</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O19" t="n">
-        <v>89.89367516071431</v>
+        <v>80.66114959698194</v>
       </c>
       <c r="P19" t="n">
-        <v>106.2502734281359</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q19" t="n">
-        <v>162.9939231415902</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R19" t="n">
-        <v>227.150859979262</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S19" t="n">
-        <v>246.0552733207275</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T19" t="n">
-        <v>218.6660521851541</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U19" t="n">
-        <v>291.226976759563</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23981,49 +23983,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>422.4828842901392</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H20" t="n">
-        <v>352.7559106155991</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I20" t="n">
-        <v>264.9395304164745</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J20" t="n">
-        <v>126.8306476072186</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K20" t="n">
-        <v>96.74614482954047</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L20" t="n">
-        <v>61.47033764627412</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M20" t="n">
-        <v>25.56910949601522</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>24.2214452136497</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>50.93671224565088</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P20" t="n">
-        <v>95.27410653902663</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3402047289868</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R20" t="n">
-        <v>228.6488042124114</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S20" t="n">
-        <v>242.1563016843589</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T20" t="n">
-        <v>220.6670294055369</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U20" t="n">
-        <v>248.8130185540101</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24060,19 +24062,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>161.176718209428</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H21" t="n">
-        <v>139.3125383858557</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I21" t="n">
-        <v>122.5198839159847</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J21" t="n">
-        <v>96.74021199285306</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K21" t="n">
-        <v>37.15999050502471</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>74.4739936679631</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R21" t="n">
-        <v>164.4350525164654</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S21" t="n">
-        <v>211.0269662249707</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T21" t="n">
-        <v>230.7472684222575</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6601960410561</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24139,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.3699888987368</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H22" t="n">
-        <v>168.7832981868615</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I22" t="n">
-        <v>171.8136191935084</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J22" t="n">
-        <v>141.8677448475604</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K22" t="n">
-        <v>103.2194467320342</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L22" t="n">
-        <v>81.17768315713714</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M22" t="n">
-        <v>78.90436642388586</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N22" t="n">
-        <v>66.0568078880501</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O22" t="n">
-        <v>89.89367516071431</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P22" t="n">
-        <v>106.2502734281359</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q22" t="n">
-        <v>162.9939231415902</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R22" t="n">
-        <v>227.150859979262</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S22" t="n">
-        <v>246.0552733207275</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T22" t="n">
-        <v>218.6660521851541</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U22" t="n">
-        <v>291.226976759563</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24218,49 +24220,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>422.4828842901392</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H23" t="n">
-        <v>352.7559106155991</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I23" t="n">
-        <v>264.9395304164745</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J23" t="n">
-        <v>126.8306476072186</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K23" t="n">
-        <v>96.74614482954047</v>
+        <v>78.22308851520964</v>
       </c>
       <c r="L23" t="n">
-        <v>61.47033764627412</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M23" t="n">
-        <v>25.56910949601522</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>24.2214452136497</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>50.93671224565088</v>
+        <v>26.40184904719007</v>
       </c>
       <c r="P23" t="n">
-        <v>95.27410653902663</v>
+        <v>74.33416843326194</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3402047289868</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R23" t="n">
-        <v>228.6488042124114</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S23" t="n">
-        <v>242.1563016843589</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T23" t="n">
-        <v>220.6670294055369</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U23" t="n">
-        <v>248.8130185540101</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24297,19 +24299,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>161.176718209428</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H24" t="n">
-        <v>139.3125383858557</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I24" t="n">
-        <v>122.5198839159847</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J24" t="n">
-        <v>96.74021199285306</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K24" t="n">
-        <v>37.15999050502471</v>
+        <v>24.57889804244017</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>74.4739936679631</v>
+        <v>64.52858488856607</v>
       </c>
       <c r="R24" t="n">
-        <v>164.4350525164654</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S24" t="n">
-        <v>211.0269662249707</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T24" t="n">
-        <v>230.7472684222575</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6601960410561</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24376,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.3699888987368</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H25" t="n">
-        <v>168.7832981868615</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I25" t="n">
-        <v>171.8136191935084</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J25" t="n">
-        <v>141.8677448475604</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K25" t="n">
-        <v>103.2194467320342</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L25" t="n">
-        <v>81.17768315713714</v>
+        <v>71.46654840866279</v>
       </c>
       <c r="M25" t="n">
-        <v>78.90436642388586</v>
+        <v>68.6653364331837</v>
       </c>
       <c r="N25" t="n">
-        <v>66.0568078880501</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O25" t="n">
-        <v>89.89367516071431</v>
+        <v>80.66114959698194</v>
       </c>
       <c r="P25" t="n">
-        <v>106.2502734281359</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q25" t="n">
-        <v>162.9939231415902</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R25" t="n">
-        <v>227.150859979262</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S25" t="n">
-        <v>246.0552733207275</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T25" t="n">
-        <v>218.6660521851541</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U25" t="n">
-        <v>291.226976759563</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24455,49 +24457,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>422.4828842901392</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H26" t="n">
-        <v>352.7559106155991</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I26" t="n">
-        <v>264.9395304164745</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J26" t="n">
-        <v>126.8306476072186</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K26" t="n">
-        <v>96.74614482954047</v>
+        <v>78.22308851520964</v>
       </c>
       <c r="L26" t="n">
-        <v>61.47033764627412</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M26" t="n">
-        <v>25.56910949601522</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>24.2214452136497</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>50.93671224565088</v>
+        <v>26.40184904719007</v>
       </c>
       <c r="P26" t="n">
-        <v>95.27410653902663</v>
+        <v>74.33416843326194</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3402047289868</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R26" t="n">
-        <v>228.6488042124114</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S26" t="n">
-        <v>242.1563016843589</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T26" t="n">
-        <v>220.6670294055369</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U26" t="n">
-        <v>248.8130185540101</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24534,19 +24536,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>161.176718209428</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H27" t="n">
-        <v>139.3125383858557</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I27" t="n">
-        <v>122.5198839159847</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J27" t="n">
-        <v>96.74021199285306</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K27" t="n">
-        <v>37.15999050502471</v>
+        <v>24.57889804244017</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>74.4739936679631</v>
+        <v>64.52858488856607</v>
       </c>
       <c r="R27" t="n">
-        <v>164.4350525164654</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S27" t="n">
-        <v>211.0269662249707</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T27" t="n">
-        <v>230.7472684222575</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6601960410561</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24613,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.3699888987368</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H28" t="n">
-        <v>168.7832981868615</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I28" t="n">
-        <v>171.8136191935084</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J28" t="n">
-        <v>141.8677448475604</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K28" t="n">
-        <v>103.2194467320342</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L28" t="n">
-        <v>81.17768315713714</v>
+        <v>71.46654840866279</v>
       </c>
       <c r="M28" t="n">
-        <v>78.90436642388586</v>
+        <v>68.6653364331837</v>
       </c>
       <c r="N28" t="n">
-        <v>66.0568078880501</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O28" t="n">
-        <v>89.89367516071431</v>
+        <v>80.66114959698194</v>
       </c>
       <c r="P28" t="n">
-        <v>106.2502734281359</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q28" t="n">
-        <v>162.9939231415902</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R28" t="n">
-        <v>227.150859979262</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S28" t="n">
-        <v>246.0552733207275</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T28" t="n">
-        <v>218.6660521851541</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U28" t="n">
-        <v>291.226976759563</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24692,49 +24694,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>422.4828842901392</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H29" t="n">
-        <v>352.7559106155991</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I29" t="n">
-        <v>264.9395304164745</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J29" t="n">
-        <v>126.8306476072186</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K29" t="n">
-        <v>96.74614482954047</v>
+        <v>78.22308851520964</v>
       </c>
       <c r="L29" t="n">
-        <v>61.47033764627415</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M29" t="n">
-        <v>25.56910949601524</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>24.2214452136497</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>50.93671224565091</v>
+        <v>26.40184904719007</v>
       </c>
       <c r="P29" t="n">
-        <v>95.27410653902666</v>
+        <v>74.33416843326194</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3402047289868</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R29" t="n">
-        <v>228.6488042124114</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S29" t="n">
-        <v>242.1563016843589</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T29" t="n">
-        <v>220.6670294055369</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U29" t="n">
-        <v>248.8130185540101</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24771,19 +24773,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>161.176718209428</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H30" t="n">
-        <v>139.3125383858557</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I30" t="n">
-        <v>122.5198839159847</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J30" t="n">
-        <v>96.74021199285306</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K30" t="n">
-        <v>37.15999050502471</v>
+        <v>24.57889804244017</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>74.4739936679631</v>
+        <v>64.52858488856607</v>
       </c>
       <c r="R30" t="n">
-        <v>164.4350525164654</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S30" t="n">
-        <v>211.0269662249707</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T30" t="n">
-        <v>230.7472684222575</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6601960410561</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24850,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.3699888987368</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H31" t="n">
-        <v>168.7832981868615</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I31" t="n">
-        <v>171.8136191935084</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J31" t="n">
-        <v>141.8677448475604</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K31" t="n">
-        <v>103.2194467320342</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L31" t="n">
-        <v>81.17768315713714</v>
+        <v>71.46654840866279</v>
       </c>
       <c r="M31" t="n">
-        <v>78.90436642388586</v>
+        <v>68.6653364331837</v>
       </c>
       <c r="N31" t="n">
-        <v>66.05680788805012</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O31" t="n">
-        <v>89.89367516071432</v>
+        <v>80.66114959698194</v>
       </c>
       <c r="P31" t="n">
-        <v>106.2502734281359</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q31" t="n">
-        <v>162.9939231415902</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R31" t="n">
-        <v>227.150859979262</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S31" t="n">
-        <v>246.0552733207275</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T31" t="n">
-        <v>218.6660521851541</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U31" t="n">
-        <v>291.226976759563</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24929,49 +24931,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>422.4828842901392</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H32" t="n">
-        <v>352.7559106155991</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I32" t="n">
-        <v>264.9395304164745</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J32" t="n">
-        <v>126.8306476072186</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K32" t="n">
-        <v>96.74614482954047</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L32" t="n">
-        <v>61.47033764627412</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M32" t="n">
-        <v>25.56910949601522</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>24.2214452136497</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>50.93671224565088</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P32" t="n">
-        <v>95.27410653902663</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3402047289868</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R32" t="n">
-        <v>228.6488042124114</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S32" t="n">
-        <v>242.1563016843589</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T32" t="n">
-        <v>220.6670294055369</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U32" t="n">
-        <v>248.8130185540101</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25008,19 +25010,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>161.176718209428</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H33" t="n">
-        <v>139.3125383858557</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I33" t="n">
-        <v>122.5198839159847</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J33" t="n">
-        <v>96.74021199285306</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K33" t="n">
-        <v>37.15999050502471</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>74.4739936679631</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R33" t="n">
-        <v>164.4350525164654</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S33" t="n">
-        <v>211.0269662249707</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T33" t="n">
-        <v>230.7472684222575</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6601960410561</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25087,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.3699888987368</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H34" t="n">
-        <v>168.7832981868615</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I34" t="n">
-        <v>171.8136191935084</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J34" t="n">
-        <v>141.8677448475604</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K34" t="n">
-        <v>103.2194467320342</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L34" t="n">
-        <v>81.17768315713714</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M34" t="n">
-        <v>78.90436642388586</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N34" t="n">
-        <v>66.0568078880501</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O34" t="n">
-        <v>89.89367516071431</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P34" t="n">
-        <v>106.2502734281359</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q34" t="n">
-        <v>162.9939231415902</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R34" t="n">
-        <v>227.150859979262</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S34" t="n">
-        <v>246.0552733207275</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T34" t="n">
-        <v>218.6660521851541</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U34" t="n">
-        <v>291.226976759563</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25166,49 +25168,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>422.4828842901392</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H35" t="n">
-        <v>352.7559106155991</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I35" t="n">
-        <v>264.9395304164745</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J35" t="n">
-        <v>126.8306476072186</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K35" t="n">
-        <v>96.74614482954047</v>
+        <v>78.22308851520964</v>
       </c>
       <c r="L35" t="n">
-        <v>61.47033764627412</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M35" t="n">
-        <v>25.56910949601522</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>24.2214452136497</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>50.93671224565088</v>
+        <v>26.40184904719007</v>
       </c>
       <c r="P35" t="n">
-        <v>95.27410653902663</v>
+        <v>74.33416843326194</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.3402047289868</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R35" t="n">
-        <v>228.6488042124114</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S35" t="n">
-        <v>242.1563016843589</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T35" t="n">
-        <v>220.6670294055369</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U35" t="n">
-        <v>248.8130185540101</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25245,19 +25247,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>161.176718209428</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H36" t="n">
-        <v>139.3125383858557</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I36" t="n">
-        <v>122.5198839159847</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J36" t="n">
-        <v>96.74021199285306</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K36" t="n">
-        <v>37.15999050502471</v>
+        <v>24.57889804244017</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>74.4739936679631</v>
+        <v>64.52858488856607</v>
       </c>
       <c r="R36" t="n">
-        <v>164.4350525164654</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S36" t="n">
-        <v>211.0269662249707</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T36" t="n">
-        <v>230.7472684222575</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6601960410561</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25324,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.3699888987368</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H37" t="n">
-        <v>168.7832981868615</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I37" t="n">
-        <v>171.8136191935084</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J37" t="n">
-        <v>141.8677448475604</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K37" t="n">
-        <v>103.2194467320342</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L37" t="n">
-        <v>81.17768315713714</v>
+        <v>71.46654840866279</v>
       </c>
       <c r="M37" t="n">
-        <v>78.90436642388586</v>
+        <v>68.6653364331837</v>
       </c>
       <c r="N37" t="n">
-        <v>66.0568078880501</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O37" t="n">
-        <v>89.89367516071431</v>
+        <v>80.66114959698194</v>
       </c>
       <c r="P37" t="n">
-        <v>106.2502734281359</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q37" t="n">
-        <v>162.9939231415902</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R37" t="n">
-        <v>227.150859979262</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S37" t="n">
-        <v>246.0552733207275</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T37" t="n">
-        <v>218.6660521851541</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U37" t="n">
-        <v>291.226976759563</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25403,49 +25405,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>422.4828842901392</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H38" t="n">
-        <v>352.7559106155991</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I38" t="n">
-        <v>264.9395304164745</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J38" t="n">
-        <v>126.8306476072186</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K38" t="n">
-        <v>96.74614482954047</v>
+        <v>78.22308851520964</v>
       </c>
       <c r="L38" t="n">
-        <v>61.47033764627412</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M38" t="n">
-        <v>25.56910949601522</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>24.2214452136497</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>50.93671224565088</v>
+        <v>26.40184904719007</v>
       </c>
       <c r="P38" t="n">
-        <v>95.27410653902663</v>
+        <v>74.33416843326194</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3402047289868</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R38" t="n">
-        <v>228.6488042124114</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S38" t="n">
-        <v>242.1563016843589</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T38" t="n">
-        <v>220.6670294055369</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U38" t="n">
-        <v>248.8130185540101</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25482,19 +25484,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>161.176718209428</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H39" t="n">
-        <v>139.3125383858557</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I39" t="n">
-        <v>122.5198839159847</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J39" t="n">
-        <v>96.74021199285306</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K39" t="n">
-        <v>37.15999050502471</v>
+        <v>24.57889804244017</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>74.4739936679631</v>
+        <v>64.52858488856607</v>
       </c>
       <c r="R39" t="n">
-        <v>164.4350525164654</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S39" t="n">
-        <v>211.0269662249707</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T39" t="n">
-        <v>230.7472684222575</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6601960410561</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25561,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.3699888987368</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H40" t="n">
-        <v>168.7832981868615</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I40" t="n">
-        <v>171.8136191935084</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J40" t="n">
-        <v>141.8677448475604</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K40" t="n">
-        <v>103.2194467320342</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L40" t="n">
-        <v>81.17768315713714</v>
+        <v>71.46654840866279</v>
       </c>
       <c r="M40" t="n">
-        <v>78.90436642388586</v>
+        <v>68.6653364331837</v>
       </c>
       <c r="N40" t="n">
-        <v>66.0568078880501</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O40" t="n">
-        <v>89.89367516071431</v>
+        <v>80.66114959698194</v>
       </c>
       <c r="P40" t="n">
-        <v>106.2502734281359</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q40" t="n">
-        <v>162.9939231415902</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R40" t="n">
-        <v>227.150859979262</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S40" t="n">
-        <v>246.0552733207275</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T40" t="n">
-        <v>218.6660521851541</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U40" t="n">
-        <v>291.226976759563</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25640,49 +25642,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>422.4828842901392</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H41" t="n">
-        <v>352.7559106155991</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I41" t="n">
-        <v>264.9395304164745</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J41" t="n">
-        <v>126.8306476072186</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K41" t="n">
-        <v>96.74614482954047</v>
+        <v>78.22308851520964</v>
       </c>
       <c r="L41" t="n">
-        <v>61.47033764627412</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M41" t="n">
-        <v>25.56910949601522</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>24.2214452136497</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>50.93671224565088</v>
+        <v>26.40184904719007</v>
       </c>
       <c r="P41" t="n">
-        <v>95.27410653902663</v>
+        <v>74.33416843326194</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3402047289868</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R41" t="n">
-        <v>228.6488042124114</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S41" t="n">
-        <v>242.1563016843589</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T41" t="n">
-        <v>220.6670294055369</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U41" t="n">
-        <v>248.8130185540101</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25719,19 +25721,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>161.176718209428</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H42" t="n">
-        <v>139.3125383858557</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I42" t="n">
-        <v>122.5198839159847</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J42" t="n">
-        <v>96.74021199285306</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K42" t="n">
-        <v>37.15999050502471</v>
+        <v>24.57889804244017</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25749,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>74.4739936679631</v>
+        <v>64.52858488856607</v>
       </c>
       <c r="R42" t="n">
-        <v>164.4350525164654</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S42" t="n">
-        <v>211.0269662249707</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T42" t="n">
-        <v>230.7472684222575</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6601960410561</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25798,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.3699888987368</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H43" t="n">
-        <v>168.7832981868615</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I43" t="n">
-        <v>171.8136191935084</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J43" t="n">
-        <v>141.8677448475604</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K43" t="n">
-        <v>103.2194467320342</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L43" t="n">
-        <v>81.17768315713714</v>
+        <v>71.46654840866279</v>
       </c>
       <c r="M43" t="n">
-        <v>78.90436642388586</v>
+        <v>68.6653364331837</v>
       </c>
       <c r="N43" t="n">
-        <v>66.0568078880501</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O43" t="n">
-        <v>89.89367516071431</v>
+        <v>80.66114959698194</v>
       </c>
       <c r="P43" t="n">
-        <v>106.2502734281359</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q43" t="n">
-        <v>162.9939231415902</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R43" t="n">
-        <v>227.150859979262</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S43" t="n">
-        <v>246.0552733207275</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T43" t="n">
-        <v>218.6660521851541</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U43" t="n">
-        <v>291.226976759563</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25877,49 +25879,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>422.4828842901392</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H44" t="n">
-        <v>352.7559106155991</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I44" t="n">
-        <v>264.9395304164745</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J44" t="n">
-        <v>126.8306476072186</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K44" t="n">
-        <v>96.74614482954047</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L44" t="n">
-        <v>61.47033764627412</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M44" t="n">
-        <v>25.56910949601522</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>24.2214452136497</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>50.93671224565088</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P44" t="n">
-        <v>95.27410653902663</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3402047289868</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R44" t="n">
-        <v>228.6488042124114</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S44" t="n">
-        <v>242.1563016843589</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T44" t="n">
-        <v>220.6670294055369</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U44" t="n">
-        <v>248.8130185540101</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25956,19 +25958,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>161.176718209428</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H45" t="n">
-        <v>139.3125383858557</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I45" t="n">
-        <v>122.5198839159847</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J45" t="n">
-        <v>96.74021199285306</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K45" t="n">
-        <v>37.15999050502471</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25986,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>74.4739936679631</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R45" t="n">
-        <v>164.4350525164654</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S45" t="n">
-        <v>211.0269662249707</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T45" t="n">
-        <v>230.7472684222575</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6601960410561</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26035,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.3699888987368</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H46" t="n">
-        <v>168.7832981868615</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I46" t="n">
-        <v>171.8136191935084</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J46" t="n">
-        <v>141.8677448475604</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K46" t="n">
-        <v>103.2194467320342</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L46" t="n">
-        <v>81.17768315713714</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M46" t="n">
-        <v>78.90436642388586</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N46" t="n">
-        <v>66.0568078880501</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O46" t="n">
-        <v>89.89367516071431</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P46" t="n">
-        <v>106.2502734281359</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q46" t="n">
-        <v>162.9939231415902</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R46" t="n">
-        <v>227.150859979262</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S46" t="n">
-        <v>246.0552733207275</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T46" t="n">
-        <v>218.6660521851541</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U46" t="n">
-        <v>291.226976759563</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>253008.0156450206</v>
+        <v>142494.3524630522</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>381540.0047007162</v>
+        <v>408681.979759667</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>381540.0047007162</v>
+        <v>408681.979759667</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>381540.0047007162</v>
+        <v>408681.979759667</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>381540.0047007162</v>
+        <v>408681.979759667</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>381540.0047007162</v>
+        <v>408681.979759667</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>381540.0047007162</v>
+        <v>408681.979759667</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>381540.0047007162</v>
+        <v>408681.979759667</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>381540.0047007162</v>
+        <v>408681.979759667</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>381540.0047007162</v>
+        <v>408681.979759667</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>381540.0047007162</v>
+        <v>408681.979759667</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>381540.0047007162</v>
+        <v>408681.979759667</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>381540.0047007162</v>
+        <v>408681.979759667</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>23359.72991197576</v>
       </c>
       <c r="D2" t="n">
-        <v>41778.67377563721</v>
+        <v>23359.72991197576</v>
       </c>
       <c r="E2" t="n">
-        <v>63237.28018030496</v>
+        <v>67777.48636514629</v>
       </c>
       <c r="F2" t="n">
-        <v>63237.28018030496</v>
+        <v>67777.48636514629</v>
       </c>
       <c r="G2" t="n">
-        <v>63237.28018030496</v>
+        <v>67777.48636514629</v>
       </c>
       <c r="H2" t="n">
-        <v>63237.28018030496</v>
+        <v>67777.48636514629</v>
       </c>
       <c r="I2" t="n">
-        <v>63237.28018030496</v>
+        <v>67777.48636514629</v>
       </c>
       <c r="J2" t="n">
-        <v>63237.28018030496</v>
+        <v>67777.48636514629</v>
       </c>
       <c r="K2" t="n">
-        <v>63237.28018030496</v>
+        <v>67777.48636514629</v>
       </c>
       <c r="L2" t="n">
-        <v>63237.28018030496</v>
+        <v>67777.48636514629</v>
       </c>
       <c r="M2" t="n">
-        <v>63237.28018030496</v>
+        <v>67777.48636514631</v>
       </c>
       <c r="N2" t="n">
-        <v>63237.28018030496</v>
+        <v>67777.48636514631</v>
       </c>
       <c r="O2" t="n">
-        <v>63237.28018030496</v>
+        <v>67777.48636514629</v>
       </c>
       <c r="P2" t="n">
-        <v>63237.28018030496</v>
+        <v>67777.48636514629</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>103270.7278827019</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>124419.082779562</v>
+        <v>250398.5673986983</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>2335.972991197576</v>
       </c>
       <c r="E4" t="n">
-        <v>2116.323618886231</v>
+        <v>2017.061568789217</v>
       </c>
       <c r="F4" t="n">
-        <v>2116.323618886231</v>
+        <v>2017.061568789217</v>
       </c>
       <c r="G4" t="n">
-        <v>2116.323618886231</v>
+        <v>2017.061568789217</v>
       </c>
       <c r="H4" t="n">
-        <v>2116.323618886231</v>
+        <v>2017.061568789217</v>
       </c>
       <c r="I4" t="n">
-        <v>2116.323618886231</v>
+        <v>2017.061568789217</v>
       </c>
       <c r="J4" t="n">
-        <v>2116.323618886231</v>
+        <v>2017.061568789217</v>
       </c>
       <c r="K4" t="n">
-        <v>2116.323618886231</v>
+        <v>2017.061568789217</v>
       </c>
       <c r="L4" t="n">
-        <v>2116.323618886231</v>
+        <v>2017.061568789217</v>
       </c>
       <c r="M4" t="n">
-        <v>2116.323618886231</v>
+        <v>2017.061568789217</v>
       </c>
       <c r="N4" t="n">
-        <v>2116.323618886231</v>
+        <v>2017.061568789217</v>
       </c>
       <c r="O4" t="n">
-        <v>2116.323618886231</v>
+        <v>2017.061568789217</v>
       </c>
       <c r="P4" t="n">
-        <v>2116.323618886231</v>
+        <v>2017.061568789217</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26475,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>36256.35416310675</v>
+        <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>6004.813257477132</v>
+        <v>6794.459031509246</v>
       </c>
       <c r="F5" t="n">
-        <v>6004.813257477132</v>
+        <v>6794.459031509246</v>
       </c>
       <c r="G5" t="n">
-        <v>6004.813257477132</v>
+        <v>6794.459031509246</v>
       </c>
       <c r="H5" t="n">
-        <v>6004.813257477132</v>
+        <v>6794.459031509247</v>
       </c>
       <c r="I5" t="n">
-        <v>6004.813257477132</v>
+        <v>6794.459031509246</v>
       </c>
       <c r="J5" t="n">
-        <v>6004.813257477132</v>
+        <v>6794.459031509246</v>
       </c>
       <c r="K5" t="n">
-        <v>6004.813257477132</v>
+        <v>6794.459031509246</v>
       </c>
       <c r="L5" t="n">
-        <v>6004.813257477132</v>
+        <v>6794.459031509247</v>
       </c>
       <c r="M5" t="n">
-        <v>6004.813257477132</v>
+        <v>6794.459031509246</v>
       </c>
       <c r="N5" t="n">
-        <v>6004.813257477132</v>
+        <v>6794.459031509246</v>
       </c>
       <c r="O5" t="n">
-        <v>6004.813257477132</v>
+        <v>6794.459031509246</v>
       </c>
       <c r="P5" t="n">
-        <v>6004.813257477132</v>
+        <v>6794.459031509247</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26527,43 @@
         <v>-12603.84307922182</v>
       </c>
       <c r="D6" t="n">
-        <v>-100084.381261369</v>
+        <v>-12603.84307922182</v>
       </c>
       <c r="E6" t="n">
-        <v>-69302.93947562035</v>
+        <v>-191432.6016338505</v>
       </c>
       <c r="F6" t="n">
-        <v>55116.1433039416</v>
+        <v>58965.96576484783</v>
       </c>
       <c r="G6" t="n">
-        <v>55116.1433039416</v>
+        <v>58965.96576484783</v>
       </c>
       <c r="H6" t="n">
-        <v>55116.1433039416</v>
+        <v>58965.96576484783</v>
       </c>
       <c r="I6" t="n">
-        <v>55116.1433039416</v>
+        <v>58965.96576484783</v>
       </c>
       <c r="J6" t="n">
-        <v>55116.1433039416</v>
+        <v>58965.96576484783</v>
       </c>
       <c r="K6" t="n">
-        <v>55116.1433039416</v>
+        <v>58965.96576484783</v>
       </c>
       <c r="L6" t="n">
-        <v>55116.1433039416</v>
+        <v>58965.96576484783</v>
       </c>
       <c r="M6" t="n">
-        <v>55116.1433039416</v>
+        <v>58965.96576484785</v>
       </c>
       <c r="N6" t="n">
-        <v>55116.1433039416</v>
+        <v>58965.96576484785</v>
       </c>
       <c r="O6" t="n">
-        <v>55116.1433039416</v>
+        <v>58965.96576484783</v>
       </c>
       <c r="P6" t="n">
-        <v>55116.1433039416</v>
+        <v>58965.96576484783</v>
       </c>
     </row>
   </sheetData>
@@ -26741,43 +26743,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>120.5850533535205</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>275.4501494255565</v>
+        <v>311.6724326380388</v>
       </c>
       <c r="F3" t="n">
-        <v>275.4501494255565</v>
+        <v>311.6724326380388</v>
       </c>
       <c r="G3" t="n">
-        <v>275.4501494255565</v>
+        <v>311.6724326380388</v>
       </c>
       <c r="H3" t="n">
-        <v>275.4501494255565</v>
+        <v>311.6724326380389</v>
       </c>
       <c r="I3" t="n">
-        <v>275.4501494255565</v>
+        <v>311.6724326380388</v>
       </c>
       <c r="J3" t="n">
-        <v>275.4501494255565</v>
+        <v>311.6724326380388</v>
       </c>
       <c r="K3" t="n">
-        <v>275.4501494255565</v>
+        <v>311.6724326380388</v>
       </c>
       <c r="L3" t="n">
-        <v>275.4501494255565</v>
+        <v>311.6724326380389</v>
       </c>
       <c r="M3" t="n">
-        <v>275.4501494255565</v>
+        <v>311.6724326380388</v>
       </c>
       <c r="N3" t="n">
-        <v>275.4501494255565</v>
+        <v>311.6724326380388</v>
       </c>
       <c r="O3" t="n">
-        <v>275.4501494255565</v>
+        <v>311.6724326380388</v>
       </c>
       <c r="P3" t="n">
-        <v>275.4501494255565</v>
+        <v>311.6724326380389</v>
       </c>
     </row>
     <row r="4">
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>120.5850533535205</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>154.865096072036</v>
+        <v>311.6724326380388</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4847640335819916</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4.964589658921573</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>18.68886540466975</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>41.1437413952296</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>61.66380293675531</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>76.49940022949021</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>85.12032261170395</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>86.49765842211877</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>81.67728606318785</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>69.70967398413242</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>52.34906203147732</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>30.4510587244948</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>11.04656041524964</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>2.122054557005169</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03878112268655932</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2593716241943649</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2.504983844192945</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>8.930119517218264</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>24.50493051215269</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>41.88282933317514</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>56.31663270062295</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>65.71885407766867</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>61.71110744592855</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>49.52860427269411</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>33.10856030944208</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>16.10379259690978</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>4.817714159926028</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.045449660678163</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01706392264436611</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2174484568670041</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1.933314461963002</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>6.539268139236817</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.37360590049719</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>25.26355707963921</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>32.32865512366352</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>34.08603401597956</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>33.27554431311167</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>30.73535097607438</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>26.29940245598748</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>18.2083430563816</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>9.777273342401839</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>3.78953356194588</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9290979520681084</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01186082492001842</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.107337284122839</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H11" t="n">
-        <v>11.34051796102303</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I11" t="n">
-        <v>42.69062064614581</v>
+        <v>48.30452847950952</v>
       </c>
       <c r="J11" t="n">
-        <v>93.98386781832093</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K11" t="n">
-        <v>140.8574550552407</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L11" t="n">
-        <v>174.7461284642151</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M11" t="n">
-        <v>194.4387378907347</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N11" t="n">
-        <v>197.5849599492487</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O11" t="n">
-        <v>186.5738748302522</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P11" t="n">
-        <v>159.2364856284696</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q11" t="n">
-        <v>119.5799691408204</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R11" t="n">
-        <v>69.55877567378137</v>
+        <v>78.70590330331339</v>
       </c>
       <c r="S11" t="n">
-        <v>25.23344836194923</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T11" t="n">
-        <v>4.847368961247732</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08858698272982714</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.59247767989648</v>
+        <v>0.6703897607686118</v>
       </c>
       <c r="H12" t="n">
-        <v>5.722087066368637</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I12" t="n">
-        <v>20.3989025753832</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J12" t="n">
-        <v>55.9761478186407</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K12" t="n">
-        <v>95.67215237170485</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L12" t="n">
-        <v>128.6430155406809</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M12" t="n">
-        <v>150.1203314369283</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N12" t="n">
-        <v>154.0935699130762</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O12" t="n">
-        <v>140.9655118480015</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P12" t="n">
-        <v>113.1372509970743</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q12" t="n">
-        <v>75.62925612152262</v>
+        <v>85.57466490091964</v>
       </c>
       <c r="R12" t="n">
-        <v>36.78558787988849</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S12" t="n">
-        <v>11.00501304544558</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T12" t="n">
-        <v>2.388100823793267</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03897879473003159</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4967133842100199</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H13" t="n">
-        <v>4.416233543249089</v>
+        <v>4.996977690491838</v>
       </c>
       <c r="I13" t="n">
-        <v>14.93752613606133</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J13" t="n">
-        <v>35.1176362636484</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K13" t="n">
-        <v>57.70906409276412</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L13" t="n">
-        <v>73.8477335033697</v>
+        <v>83.55886825184405</v>
       </c>
       <c r="M13" t="n">
-        <v>77.86208076303065</v>
+        <v>88.10111075373281</v>
       </c>
       <c r="N13" t="n">
-        <v>76.01069451279336</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O13" t="n">
-        <v>70.2081790699763</v>
+        <v>79.44070463370866</v>
       </c>
       <c r="P13" t="n">
-        <v>60.07522603209183</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.59297256325903</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R13" t="n">
-        <v>22.33403998457052</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S13" t="n">
-        <v>8.656359613914615</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T13" t="n">
-        <v>2.122320823442811</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02709345732054657</v>
+        <v>0.03065630484964319</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.107337284122839</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H14" t="n">
-        <v>11.34051796102303</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I14" t="n">
-        <v>42.69062064614581</v>
+        <v>48.30452847950952</v>
       </c>
       <c r="J14" t="n">
-        <v>93.98386781832093</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K14" t="n">
-        <v>140.8574550552407</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L14" t="n">
-        <v>174.7461284642151</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M14" t="n">
-        <v>194.4387378907347</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N14" t="n">
-        <v>197.5849599492487</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O14" t="n">
-        <v>186.5738748302522</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P14" t="n">
-        <v>159.2364856284696</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q14" t="n">
-        <v>119.5799691408204</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R14" t="n">
-        <v>69.55877567378137</v>
+        <v>78.70590330331339</v>
       </c>
       <c r="S14" t="n">
-        <v>25.23344836194923</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T14" t="n">
-        <v>4.847368961247732</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08858698272982714</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.59247767989648</v>
+        <v>0.6703897607686118</v>
       </c>
       <c r="H15" t="n">
-        <v>5.722087066368637</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I15" t="n">
-        <v>20.3989025753832</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J15" t="n">
-        <v>55.9761478186407</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K15" t="n">
-        <v>95.67215237170485</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L15" t="n">
-        <v>128.6430155406809</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M15" t="n">
-        <v>150.1203314369283</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N15" t="n">
-        <v>154.0935699130762</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O15" t="n">
-        <v>140.9655118480015</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P15" t="n">
-        <v>113.1372509970743</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q15" t="n">
-        <v>75.62925612152262</v>
+        <v>85.57466490091964</v>
       </c>
       <c r="R15" t="n">
-        <v>36.78558787988849</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S15" t="n">
-        <v>11.00501304544558</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T15" t="n">
-        <v>2.388100823793267</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03897879473003159</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4967133842100199</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H16" t="n">
-        <v>4.416233543249089</v>
+        <v>4.996977690491838</v>
       </c>
       <c r="I16" t="n">
-        <v>14.93752613606133</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J16" t="n">
-        <v>35.1176362636484</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K16" t="n">
-        <v>57.70906409276412</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L16" t="n">
-        <v>73.8477335033697</v>
+        <v>83.55886825184405</v>
       </c>
       <c r="M16" t="n">
-        <v>77.86208076303065</v>
+        <v>88.10111075373281</v>
       </c>
       <c r="N16" t="n">
-        <v>76.01069451279336</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O16" t="n">
-        <v>70.2081790699763</v>
+        <v>79.44070463370866</v>
       </c>
       <c r="P16" t="n">
-        <v>60.07522603209183</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.59297256325903</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R16" t="n">
-        <v>22.33403998457052</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S16" t="n">
-        <v>8.656359613914615</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T16" t="n">
-        <v>2.122320823442811</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02709345732054657</v>
+        <v>0.03065630484964319</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.107337284122839</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H17" t="n">
-        <v>11.34051796102303</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I17" t="n">
-        <v>42.69062064614581</v>
+        <v>48.30452847950952</v>
       </c>
       <c r="J17" t="n">
-        <v>93.98386781832093</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K17" t="n">
-        <v>140.8574550552407</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L17" t="n">
-        <v>174.7461284642151</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M17" t="n">
-        <v>194.4387378907347</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N17" t="n">
-        <v>197.5849599492487</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O17" t="n">
-        <v>186.5738748302522</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P17" t="n">
-        <v>159.2364856284696</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q17" t="n">
-        <v>119.5799691408204</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R17" t="n">
-        <v>69.55877567378137</v>
+        <v>78.70590330331339</v>
       </c>
       <c r="S17" t="n">
-        <v>25.23344836194923</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T17" t="n">
-        <v>4.847368961247732</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08858698272982714</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.59247767989648</v>
+        <v>0.6703897607686118</v>
       </c>
       <c r="H18" t="n">
-        <v>5.722087066368637</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I18" t="n">
-        <v>20.3989025753832</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J18" t="n">
-        <v>55.9761478186407</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K18" t="n">
-        <v>95.67215237170485</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L18" t="n">
-        <v>128.6430155406809</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M18" t="n">
-        <v>150.1203314369283</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N18" t="n">
-        <v>154.0935699130762</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O18" t="n">
-        <v>140.9655118480015</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P18" t="n">
-        <v>113.1372509970743</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q18" t="n">
-        <v>75.62925612152262</v>
+        <v>85.57466490091964</v>
       </c>
       <c r="R18" t="n">
-        <v>36.78558787988849</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S18" t="n">
-        <v>11.00501304544558</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T18" t="n">
-        <v>2.388100823793267</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03897879473003159</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4967133842100199</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H19" t="n">
-        <v>4.416233543249089</v>
+        <v>4.996977690491838</v>
       </c>
       <c r="I19" t="n">
-        <v>14.93752613606133</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J19" t="n">
-        <v>35.1176362636484</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K19" t="n">
-        <v>57.70906409276412</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L19" t="n">
-        <v>73.8477335033697</v>
+        <v>83.55886825184405</v>
       </c>
       <c r="M19" t="n">
-        <v>77.86208076303065</v>
+        <v>88.10111075373281</v>
       </c>
       <c r="N19" t="n">
-        <v>76.01069451279336</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O19" t="n">
-        <v>70.2081790699763</v>
+        <v>79.44070463370866</v>
       </c>
       <c r="P19" t="n">
-        <v>60.07522603209183</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q19" t="n">
-        <v>41.59297256325903</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R19" t="n">
-        <v>22.33403998457052</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S19" t="n">
-        <v>8.656359613914615</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T19" t="n">
-        <v>2.122320823442811</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02709345732054657</v>
+        <v>0.03065630484964319</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.107337284122839</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H20" t="n">
-        <v>11.34051796102303</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I20" t="n">
-        <v>42.69062064614581</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J20" t="n">
-        <v>93.98386781832093</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K20" t="n">
-        <v>140.8574550552407</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L20" t="n">
-        <v>174.7461284642151</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M20" t="n">
-        <v>194.4387378907347</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N20" t="n">
-        <v>197.5849599492487</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O20" t="n">
-        <v>186.5738748302522</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P20" t="n">
-        <v>159.2364856284696</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q20" t="n">
-        <v>119.5799691408204</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R20" t="n">
-        <v>69.55877567378137</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S20" t="n">
-        <v>25.23344836194923</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T20" t="n">
-        <v>4.847368961247732</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08858698272982714</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.59247767989648</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H21" t="n">
-        <v>5.722087066368637</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I21" t="n">
-        <v>20.3989025753832</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J21" t="n">
-        <v>55.9761478186407</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K21" t="n">
-        <v>95.67215237170485</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L21" t="n">
-        <v>128.6430155406809</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M21" t="n">
-        <v>150.1203314369283</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N21" t="n">
-        <v>154.0935699130762</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O21" t="n">
-        <v>140.9655118480015</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P21" t="n">
-        <v>113.1372509970743</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q21" t="n">
-        <v>75.62925612152262</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R21" t="n">
-        <v>36.78558787988849</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S21" t="n">
-        <v>11.00501304544558</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T21" t="n">
-        <v>2.388100823793267</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03897879473003159</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4967133842100199</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H22" t="n">
-        <v>4.416233543249089</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I22" t="n">
-        <v>14.93752613606133</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J22" t="n">
-        <v>35.1176362636484</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K22" t="n">
-        <v>57.70906409276412</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L22" t="n">
-        <v>73.8477335033697</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M22" t="n">
-        <v>77.86208076303065</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N22" t="n">
-        <v>76.01069451279336</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O22" t="n">
-        <v>70.2081790699763</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P22" t="n">
-        <v>60.07522603209183</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.59297256325903</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R22" t="n">
-        <v>22.33403998457052</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S22" t="n">
-        <v>8.656359613914615</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T22" t="n">
-        <v>2.122320823442811</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02709345732054657</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.107337284122839</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H23" t="n">
-        <v>11.34051796102303</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I23" t="n">
-        <v>42.69062064614581</v>
+        <v>48.30452847950952</v>
       </c>
       <c r="J23" t="n">
-        <v>93.98386781832093</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K23" t="n">
-        <v>140.8574550552407</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L23" t="n">
-        <v>174.7461284642151</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M23" t="n">
-        <v>194.4387378907347</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N23" t="n">
-        <v>197.5849599492487</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O23" t="n">
-        <v>186.5738748302522</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P23" t="n">
-        <v>159.2364856284696</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q23" t="n">
-        <v>119.5799691408204</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R23" t="n">
-        <v>69.55877567378137</v>
+        <v>78.70590330331339</v>
       </c>
       <c r="S23" t="n">
-        <v>25.23344836194923</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T23" t="n">
-        <v>4.847368961247732</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08858698272982714</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.59247767989648</v>
+        <v>0.6703897607686118</v>
       </c>
       <c r="H24" t="n">
-        <v>5.722087066368637</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I24" t="n">
-        <v>20.3989025753832</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J24" t="n">
-        <v>55.9761478186407</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K24" t="n">
-        <v>95.67215237170485</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L24" t="n">
-        <v>128.6430155406809</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M24" t="n">
-        <v>150.1203314369283</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N24" t="n">
-        <v>154.0935699130762</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O24" t="n">
-        <v>140.9655118480015</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P24" t="n">
-        <v>113.1372509970743</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q24" t="n">
-        <v>75.62925612152262</v>
+        <v>85.57466490091964</v>
       </c>
       <c r="R24" t="n">
-        <v>36.78558787988849</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S24" t="n">
-        <v>11.00501304544558</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T24" t="n">
-        <v>2.388100823793267</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03897879473003159</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4967133842100199</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H25" t="n">
-        <v>4.416233543249089</v>
+        <v>4.996977690491838</v>
       </c>
       <c r="I25" t="n">
-        <v>14.93752613606133</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J25" t="n">
-        <v>35.1176362636484</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K25" t="n">
-        <v>57.70906409276412</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L25" t="n">
-        <v>73.8477335033697</v>
+        <v>83.55886825184405</v>
       </c>
       <c r="M25" t="n">
-        <v>77.86208076303065</v>
+        <v>88.10111075373281</v>
       </c>
       <c r="N25" t="n">
-        <v>76.01069451279336</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O25" t="n">
-        <v>70.2081790699763</v>
+        <v>79.44070463370866</v>
       </c>
       <c r="P25" t="n">
-        <v>60.07522603209183</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.59297256325903</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R25" t="n">
-        <v>22.33403998457052</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S25" t="n">
-        <v>8.656359613914615</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T25" t="n">
-        <v>2.122320823442811</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02709345732054657</v>
+        <v>0.03065630484964319</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.107337284122839</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H26" t="n">
-        <v>11.34051796102303</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I26" t="n">
-        <v>42.69062064614581</v>
+        <v>48.30452847950952</v>
       </c>
       <c r="J26" t="n">
-        <v>93.98386781832093</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K26" t="n">
-        <v>140.8574550552407</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L26" t="n">
-        <v>174.7461284642151</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M26" t="n">
-        <v>194.4387378907347</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N26" t="n">
-        <v>197.5849599492487</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O26" t="n">
-        <v>186.5738748302522</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P26" t="n">
-        <v>159.2364856284696</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q26" t="n">
-        <v>119.5799691408204</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R26" t="n">
-        <v>69.55877567378137</v>
+        <v>78.70590330331339</v>
       </c>
       <c r="S26" t="n">
-        <v>25.23344836194923</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T26" t="n">
-        <v>4.847368961247732</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08858698272982714</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.59247767989648</v>
+        <v>0.6703897607686118</v>
       </c>
       <c r="H27" t="n">
-        <v>5.722087066368637</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I27" t="n">
-        <v>20.3989025753832</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J27" t="n">
-        <v>55.9761478186407</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K27" t="n">
-        <v>95.67215237170485</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L27" t="n">
-        <v>128.6430155406809</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M27" t="n">
-        <v>150.1203314369283</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N27" t="n">
-        <v>154.0935699130762</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O27" t="n">
-        <v>140.9655118480015</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P27" t="n">
-        <v>113.1372509970743</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q27" t="n">
-        <v>75.62925612152262</v>
+        <v>85.57466490091964</v>
       </c>
       <c r="R27" t="n">
-        <v>36.78558787988849</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S27" t="n">
-        <v>11.00501304544558</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T27" t="n">
-        <v>2.388100823793267</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03897879473003159</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4967133842100199</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H28" t="n">
-        <v>4.416233543249089</v>
+        <v>4.996977690491838</v>
       </c>
       <c r="I28" t="n">
-        <v>14.93752613606133</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J28" t="n">
-        <v>35.1176362636484</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K28" t="n">
-        <v>57.70906409276412</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L28" t="n">
-        <v>73.8477335033697</v>
+        <v>83.55886825184405</v>
       </c>
       <c r="M28" t="n">
-        <v>77.86208076303065</v>
+        <v>88.10111075373281</v>
       </c>
       <c r="N28" t="n">
-        <v>76.01069451279336</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O28" t="n">
-        <v>70.2081790699763</v>
+        <v>79.44070463370866</v>
       </c>
       <c r="P28" t="n">
-        <v>60.07522603209183</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.59297256325903</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R28" t="n">
-        <v>22.33403998457052</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S28" t="n">
-        <v>8.656359613914615</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T28" t="n">
-        <v>2.122320823442811</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02709345732054657</v>
+        <v>0.03065630484964319</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.107337284122839</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H29" t="n">
-        <v>11.34051796102303</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I29" t="n">
-        <v>42.6906206461458</v>
+        <v>48.30452847950952</v>
       </c>
       <c r="J29" t="n">
-        <v>93.98386781832092</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K29" t="n">
-        <v>140.8574550552407</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L29" t="n">
-        <v>174.7461284642151</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M29" t="n">
-        <v>194.4387378907346</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N29" t="n">
-        <v>197.5849599492487</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O29" t="n">
-        <v>186.5738748302522</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P29" t="n">
-        <v>159.2364856284696</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q29" t="n">
-        <v>119.5799691408203</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R29" t="n">
-        <v>69.55877567378137</v>
+        <v>78.70590330331339</v>
       </c>
       <c r="S29" t="n">
-        <v>25.23344836194923</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T29" t="n">
-        <v>4.847368961247732</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08858698272982712</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5924776798964799</v>
+        <v>0.6703897607686118</v>
       </c>
       <c r="H30" t="n">
-        <v>5.722087066368637</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I30" t="n">
-        <v>20.39890257538319</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J30" t="n">
-        <v>55.97614781864069</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K30" t="n">
-        <v>95.67215237170485</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L30" t="n">
-        <v>128.6430155406809</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M30" t="n">
-        <v>150.1203314369282</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N30" t="n">
-        <v>154.0935699130762</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O30" t="n">
-        <v>140.9655118480015</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P30" t="n">
-        <v>113.1372509970743</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q30" t="n">
-        <v>75.62925612152262</v>
+        <v>85.57466490091964</v>
       </c>
       <c r="R30" t="n">
-        <v>36.78558787988848</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S30" t="n">
-        <v>11.00501304544558</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T30" t="n">
-        <v>2.388100823793267</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03897879473003159</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4967133842100198</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H31" t="n">
-        <v>4.416233543249088</v>
+        <v>4.996977690491838</v>
       </c>
       <c r="I31" t="n">
-        <v>14.93752613606133</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J31" t="n">
-        <v>35.1176362636484</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K31" t="n">
-        <v>57.70906409276411</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L31" t="n">
-        <v>73.8477335033697</v>
+        <v>83.55886825184405</v>
       </c>
       <c r="M31" t="n">
-        <v>77.86208076303065</v>
+        <v>88.10111075373281</v>
       </c>
       <c r="N31" t="n">
-        <v>76.01069451279335</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O31" t="n">
-        <v>70.20817906997628</v>
+        <v>79.44070463370866</v>
       </c>
       <c r="P31" t="n">
-        <v>60.07522603209183</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q31" t="n">
-        <v>41.59297256325902</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R31" t="n">
-        <v>22.33403998457052</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S31" t="n">
-        <v>8.656359613914615</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T31" t="n">
-        <v>2.122320823442811</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02709345732054657</v>
+        <v>0.03065630484964319</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.107337284122839</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H32" t="n">
-        <v>11.34051796102303</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I32" t="n">
-        <v>42.69062064614581</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J32" t="n">
-        <v>93.98386781832093</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K32" t="n">
-        <v>140.8574550552407</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L32" t="n">
-        <v>174.7461284642151</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M32" t="n">
-        <v>194.4387378907347</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N32" t="n">
-        <v>197.5849599492487</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O32" t="n">
-        <v>186.5738748302522</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P32" t="n">
-        <v>159.2364856284696</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q32" t="n">
-        <v>119.5799691408204</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R32" t="n">
-        <v>69.55877567378137</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S32" t="n">
-        <v>25.23344836194923</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T32" t="n">
-        <v>4.847368961247732</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08858698272982714</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.59247767989648</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H33" t="n">
-        <v>5.722087066368637</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I33" t="n">
-        <v>20.3989025753832</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J33" t="n">
-        <v>55.9761478186407</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K33" t="n">
-        <v>95.67215237170485</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L33" t="n">
-        <v>128.6430155406809</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M33" t="n">
-        <v>150.1203314369283</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N33" t="n">
-        <v>154.0935699130762</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O33" t="n">
-        <v>140.9655118480015</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P33" t="n">
-        <v>113.1372509970743</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q33" t="n">
-        <v>75.62925612152262</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R33" t="n">
-        <v>36.78558787988849</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S33" t="n">
-        <v>11.00501304544558</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T33" t="n">
-        <v>2.388100823793267</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03897879473003159</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4967133842100199</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H34" t="n">
-        <v>4.416233543249089</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I34" t="n">
-        <v>14.93752613606133</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J34" t="n">
-        <v>35.1176362636484</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K34" t="n">
-        <v>57.70906409276412</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L34" t="n">
-        <v>73.8477335033697</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M34" t="n">
-        <v>77.86208076303065</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N34" t="n">
-        <v>76.01069451279336</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O34" t="n">
-        <v>70.2081790699763</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P34" t="n">
-        <v>60.07522603209183</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q34" t="n">
-        <v>41.59297256325903</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R34" t="n">
-        <v>22.33403998457052</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S34" t="n">
-        <v>8.656359613914615</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T34" t="n">
-        <v>2.122320823442811</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02709345732054657</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.107337284122839</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H35" t="n">
-        <v>11.34051796102303</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I35" t="n">
-        <v>42.69062064614581</v>
+        <v>48.30452847950952</v>
       </c>
       <c r="J35" t="n">
-        <v>93.98386781832093</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K35" t="n">
-        <v>140.8574550552407</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L35" t="n">
-        <v>174.7461284642151</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M35" t="n">
-        <v>194.4387378907347</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N35" t="n">
-        <v>197.5849599492487</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O35" t="n">
-        <v>186.5738748302522</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P35" t="n">
-        <v>159.2364856284696</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q35" t="n">
-        <v>119.5799691408204</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R35" t="n">
-        <v>69.55877567378137</v>
+        <v>78.70590330331339</v>
       </c>
       <c r="S35" t="n">
-        <v>25.23344836194923</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T35" t="n">
-        <v>4.847368961247732</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08858698272982714</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.59247767989648</v>
+        <v>0.6703897607686118</v>
       </c>
       <c r="H36" t="n">
-        <v>5.722087066368637</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I36" t="n">
-        <v>20.3989025753832</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J36" t="n">
-        <v>55.9761478186407</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K36" t="n">
-        <v>95.67215237170485</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L36" t="n">
-        <v>128.6430155406809</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M36" t="n">
-        <v>150.1203314369283</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N36" t="n">
-        <v>154.0935699130762</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O36" t="n">
-        <v>140.9655118480015</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P36" t="n">
-        <v>113.1372509970743</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q36" t="n">
-        <v>75.62925612152262</v>
+        <v>85.57466490091964</v>
       </c>
       <c r="R36" t="n">
-        <v>36.78558787988849</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S36" t="n">
-        <v>11.00501304544558</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T36" t="n">
-        <v>2.388100823793267</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03897879473003159</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4967133842100199</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H37" t="n">
-        <v>4.416233543249089</v>
+        <v>4.996977690491838</v>
       </c>
       <c r="I37" t="n">
-        <v>14.93752613606133</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J37" t="n">
-        <v>35.1176362636484</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K37" t="n">
-        <v>57.70906409276412</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L37" t="n">
-        <v>73.8477335033697</v>
+        <v>83.55886825184405</v>
       </c>
       <c r="M37" t="n">
-        <v>77.86208076303065</v>
+        <v>88.10111075373281</v>
       </c>
       <c r="N37" t="n">
-        <v>76.01069451279336</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O37" t="n">
-        <v>70.2081790699763</v>
+        <v>79.44070463370866</v>
       </c>
       <c r="P37" t="n">
-        <v>60.07522603209183</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q37" t="n">
-        <v>41.59297256325903</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R37" t="n">
-        <v>22.33403998457052</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S37" t="n">
-        <v>8.656359613914615</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T37" t="n">
-        <v>2.122320823442811</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02709345732054657</v>
+        <v>0.03065630484964319</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.107337284122839</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H38" t="n">
-        <v>11.34051796102303</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I38" t="n">
-        <v>42.69062064614581</v>
+        <v>48.30452847950952</v>
       </c>
       <c r="J38" t="n">
-        <v>93.98386781832093</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K38" t="n">
-        <v>140.8574550552407</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L38" t="n">
-        <v>174.7461284642151</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M38" t="n">
-        <v>194.4387378907347</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N38" t="n">
-        <v>197.5849599492487</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O38" t="n">
-        <v>186.5738748302522</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P38" t="n">
-        <v>159.2364856284696</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q38" t="n">
-        <v>119.5799691408204</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R38" t="n">
-        <v>69.55877567378137</v>
+        <v>78.70590330331339</v>
       </c>
       <c r="S38" t="n">
-        <v>25.23344836194923</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T38" t="n">
-        <v>4.847368961247732</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08858698272982714</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.59247767989648</v>
+        <v>0.6703897607686118</v>
       </c>
       <c r="H39" t="n">
-        <v>5.722087066368637</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I39" t="n">
-        <v>20.3989025753832</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J39" t="n">
-        <v>55.9761478186407</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K39" t="n">
-        <v>95.67215237170485</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L39" t="n">
-        <v>128.6430155406809</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M39" t="n">
-        <v>150.1203314369283</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N39" t="n">
-        <v>154.0935699130762</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O39" t="n">
-        <v>140.9655118480015</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P39" t="n">
-        <v>113.1372509970743</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q39" t="n">
-        <v>75.62925612152262</v>
+        <v>85.57466490091964</v>
       </c>
       <c r="R39" t="n">
-        <v>36.78558787988849</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S39" t="n">
-        <v>11.00501304544558</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T39" t="n">
-        <v>2.388100823793267</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03897879473003159</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4967133842100199</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H40" t="n">
-        <v>4.416233543249089</v>
+        <v>4.996977690491838</v>
       </c>
       <c r="I40" t="n">
-        <v>14.93752613606133</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J40" t="n">
-        <v>35.1176362636484</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K40" t="n">
-        <v>57.70906409276412</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L40" t="n">
-        <v>73.8477335033697</v>
+        <v>83.55886825184405</v>
       </c>
       <c r="M40" t="n">
-        <v>77.86208076303065</v>
+        <v>88.10111075373281</v>
       </c>
       <c r="N40" t="n">
-        <v>76.01069451279336</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O40" t="n">
-        <v>70.2081790699763</v>
+        <v>79.44070463370866</v>
       </c>
       <c r="P40" t="n">
-        <v>60.07522603209183</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q40" t="n">
-        <v>41.59297256325903</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R40" t="n">
-        <v>22.33403998457052</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S40" t="n">
-        <v>8.656359613914615</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T40" t="n">
-        <v>2.122320823442811</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02709345732054657</v>
+        <v>0.03065630484964319</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.107337284122839</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H41" t="n">
-        <v>11.34051796102303</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I41" t="n">
-        <v>42.69062064614581</v>
+        <v>48.30452847950952</v>
       </c>
       <c r="J41" t="n">
-        <v>93.98386781832093</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K41" t="n">
-        <v>140.8574550552407</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L41" t="n">
-        <v>174.7461284642151</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M41" t="n">
-        <v>194.4387378907347</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N41" t="n">
-        <v>197.5849599492487</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O41" t="n">
-        <v>186.5738748302522</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P41" t="n">
-        <v>159.2364856284696</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q41" t="n">
-        <v>119.5799691408204</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R41" t="n">
-        <v>69.55877567378137</v>
+        <v>78.70590330331339</v>
       </c>
       <c r="S41" t="n">
-        <v>25.23344836194923</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T41" t="n">
-        <v>4.847368961247732</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08858698272982714</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.59247767989648</v>
+        <v>0.6703897607686118</v>
       </c>
       <c r="H42" t="n">
-        <v>5.722087066368637</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I42" t="n">
-        <v>20.3989025753832</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J42" t="n">
-        <v>55.9761478186407</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K42" t="n">
-        <v>95.67215237170485</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L42" t="n">
-        <v>128.6430155406809</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M42" t="n">
-        <v>150.1203314369283</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N42" t="n">
-        <v>154.0935699130762</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O42" t="n">
-        <v>140.9655118480015</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P42" t="n">
-        <v>113.1372509970743</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q42" t="n">
-        <v>75.62925612152262</v>
+        <v>85.57466490091964</v>
       </c>
       <c r="R42" t="n">
-        <v>36.78558787988849</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S42" t="n">
-        <v>11.00501304544558</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T42" t="n">
-        <v>2.388100823793267</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03897879473003159</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4967133842100199</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H43" t="n">
-        <v>4.416233543249089</v>
+        <v>4.996977690491838</v>
       </c>
       <c r="I43" t="n">
-        <v>14.93752613606133</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J43" t="n">
-        <v>35.1176362636484</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K43" t="n">
-        <v>57.70906409276412</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L43" t="n">
-        <v>73.8477335033697</v>
+        <v>83.55886825184405</v>
       </c>
       <c r="M43" t="n">
-        <v>77.86208076303065</v>
+        <v>88.10111075373281</v>
       </c>
       <c r="N43" t="n">
-        <v>76.01069451279336</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O43" t="n">
-        <v>70.2081790699763</v>
+        <v>79.44070463370866</v>
       </c>
       <c r="P43" t="n">
-        <v>60.07522603209183</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q43" t="n">
-        <v>41.59297256325903</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R43" t="n">
-        <v>22.33403998457052</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S43" t="n">
-        <v>8.656359613914615</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T43" t="n">
-        <v>2.122320823442811</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02709345732054657</v>
+        <v>0.03065630484964319</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.107337284122839</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H44" t="n">
-        <v>11.34051796102303</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I44" t="n">
-        <v>42.69062064614581</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J44" t="n">
-        <v>93.98386781832093</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K44" t="n">
-        <v>140.8574550552407</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L44" t="n">
-        <v>174.7461284642151</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M44" t="n">
-        <v>194.4387378907347</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N44" t="n">
-        <v>197.5849599492487</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O44" t="n">
-        <v>186.5738748302522</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P44" t="n">
-        <v>159.2364856284696</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q44" t="n">
-        <v>119.5799691408204</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R44" t="n">
-        <v>69.55877567378137</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S44" t="n">
-        <v>25.23344836194923</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T44" t="n">
-        <v>4.847368961247732</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08858698272982714</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.59247767989648</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H45" t="n">
-        <v>5.722087066368637</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I45" t="n">
-        <v>20.3989025753832</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J45" t="n">
-        <v>55.9761478186407</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K45" t="n">
-        <v>95.67215237170485</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L45" t="n">
-        <v>128.6430155406809</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M45" t="n">
-        <v>150.1203314369283</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N45" t="n">
-        <v>154.0935699130762</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O45" t="n">
-        <v>140.9655118480015</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P45" t="n">
-        <v>113.1372509970743</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q45" t="n">
-        <v>75.62925612152262</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R45" t="n">
-        <v>36.78558787988849</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S45" t="n">
-        <v>11.00501304544558</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T45" t="n">
-        <v>2.388100823793267</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03897879473003159</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4967133842100199</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H46" t="n">
-        <v>4.416233543249089</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I46" t="n">
-        <v>14.93752613606133</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J46" t="n">
-        <v>35.1176362636484</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K46" t="n">
-        <v>57.70906409276412</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L46" t="n">
-        <v>73.8477335033697</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M46" t="n">
-        <v>77.86208076303065</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N46" t="n">
-        <v>76.01069451279336</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O46" t="n">
-        <v>70.2081790699763</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P46" t="n">
-        <v>60.07522603209183</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q46" t="n">
-        <v>41.59297256325903</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R46" t="n">
-        <v>22.33403998457052</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S46" t="n">
-        <v>8.656359613914615</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T46" t="n">
-        <v>2.122320823442811</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02709345732054657</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_1_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_1_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>135262.9261601899</v>
+        <v>-17119.66269577106</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>382693.7068900301</v>
+        <v>392916.8225167169</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26896114.22546831</v>
+        <v>26162104.10318995</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3957397.277440492</v>
+        <v>4378166.096834783</v>
       </c>
     </row>
     <row r="11">
@@ -8306,7 +8306,7 @@
         <v>121.083316575</v>
       </c>
       <c r="N6" t="n">
-        <v>124.6290173293239</v>
+        <v>103.0025334990966</v>
       </c>
       <c r="O6" t="n">
         <v>102.4042030119497</v>
@@ -8540,10 +8540,10 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M9" t="n">
-        <v>121.083316575</v>
+        <v>94.83491542012717</v>
       </c>
       <c r="N9" t="n">
-        <v>124.6290173293239</v>
+        <v>76.05941527020954</v>
       </c>
       <c r="O9" t="n">
         <v>102.4042030119497</v>
@@ -8774,19 +8774,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L12" t="n">
-        <v>57.07593346819701</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M12" t="n">
-        <v>38.00954882322068</v>
+        <v>38.00954882322065</v>
       </c>
       <c r="N12" t="n">
-        <v>17.73005030863851</v>
+        <v>17.73005030863848</v>
       </c>
       <c r="O12" t="n">
-        <v>49.04422963853119</v>
+        <v>49.04422963853116</v>
       </c>
       <c r="P12" t="n">
-        <v>67.92252959633598</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -9011,19 +9011,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L15" t="n">
-        <v>57.07593346819701</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M15" t="n">
-        <v>38.00954882322068</v>
+        <v>38.00954882322065</v>
       </c>
       <c r="N15" t="n">
-        <v>17.73005030863851</v>
+        <v>17.73005030863848</v>
       </c>
       <c r="O15" t="n">
-        <v>49.04422963853119</v>
+        <v>49.04422963853116</v>
       </c>
       <c r="P15" t="n">
-        <v>67.92252959633598</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9172,7 +9172,7 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>116.8735187081365</v>
+        <v>116.8735187081364</v>
       </c>
       <c r="N17" t="n">
         <v>111.9488011414238</v>
@@ -9248,19 +9248,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L18" t="n">
-        <v>57.07593346819701</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M18" t="n">
-        <v>38.00954882322068</v>
+        <v>38.00954882322065</v>
       </c>
       <c r="N18" t="n">
-        <v>17.73005030863851</v>
+        <v>17.73005030863848</v>
       </c>
       <c r="O18" t="n">
-        <v>49.04422963853119</v>
+        <v>49.04422963853116</v>
       </c>
       <c r="P18" t="n">
-        <v>67.92252959633598</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9409,7 +9409,7 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>116.8735187081365</v>
+        <v>116.8735187081364</v>
       </c>
       <c r="N20" t="n">
         <v>111.9488011414238</v>
@@ -9488,13 +9488,13 @@
         <v>57.07593346819698</v>
       </c>
       <c r="M21" t="n">
-        <v>38.00954882322068</v>
+        <v>38.00954882322065</v>
       </c>
       <c r="N21" t="n">
-        <v>17.73005030863851</v>
+        <v>17.73005030863848</v>
       </c>
       <c r="O21" t="n">
-        <v>49.04422963853119</v>
+        <v>49.04422963853116</v>
       </c>
       <c r="P21" t="n">
         <v>67.92252959633595</v>
@@ -9646,7 +9646,7 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>116.8735187081365</v>
+        <v>116.8735187081364</v>
       </c>
       <c r="N23" t="n">
         <v>111.9488011414238</v>
@@ -9722,19 +9722,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L24" t="n">
-        <v>57.07593346819701</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M24" t="n">
-        <v>38.00954882322068</v>
+        <v>38.00954882322065</v>
       </c>
       <c r="N24" t="n">
-        <v>17.73005030863851</v>
+        <v>17.73005030863848</v>
       </c>
       <c r="O24" t="n">
-        <v>49.04422963853119</v>
+        <v>49.04422963853116</v>
       </c>
       <c r="P24" t="n">
-        <v>67.92252959633598</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9883,7 +9883,7 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>116.8735187081365</v>
+        <v>116.8735187081364</v>
       </c>
       <c r="N26" t="n">
         <v>111.9488011414238</v>
@@ -9959,19 +9959,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L27" t="n">
-        <v>57.07593346819701</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M27" t="n">
-        <v>38.00954882322068</v>
+        <v>38.00954882322065</v>
       </c>
       <c r="N27" t="n">
-        <v>17.73005030863851</v>
+        <v>17.73005030863848</v>
       </c>
       <c r="O27" t="n">
-        <v>49.04422963853119</v>
+        <v>49.04422963853116</v>
       </c>
       <c r="P27" t="n">
-        <v>67.92252959633598</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10120,7 +10120,7 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>116.8735187081365</v>
+        <v>116.8735187081364</v>
       </c>
       <c r="N29" t="n">
         <v>111.9488011414238</v>
@@ -10196,19 +10196,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L30" t="n">
-        <v>57.07593346819701</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M30" t="n">
-        <v>38.00954882322068</v>
+        <v>38.00954882322065</v>
       </c>
       <c r="N30" t="n">
-        <v>17.73005030863851</v>
+        <v>17.73005030863848</v>
       </c>
       <c r="O30" t="n">
-        <v>49.04422963853119</v>
+        <v>49.04422963853116</v>
       </c>
       <c r="P30" t="n">
-        <v>67.92252959633598</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10357,7 +10357,7 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>116.8735187081365</v>
+        <v>116.8735187081364</v>
       </c>
       <c r="N32" t="n">
         <v>111.9488011414238</v>
@@ -10436,13 +10436,13 @@
         <v>57.07593346819698</v>
       </c>
       <c r="M33" t="n">
-        <v>38.00954882322068</v>
+        <v>38.00954882322065</v>
       </c>
       <c r="N33" t="n">
-        <v>17.73005030863851</v>
+        <v>17.73005030863848</v>
       </c>
       <c r="O33" t="n">
-        <v>49.04422963853119</v>
+        <v>49.04422963853116</v>
       </c>
       <c r="P33" t="n">
         <v>67.92252959633595</v>
@@ -10594,7 +10594,7 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>116.8735187081365</v>
+        <v>116.8735187081364</v>
       </c>
       <c r="N35" t="n">
         <v>111.9488011414238</v>
@@ -10670,19 +10670,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L36" t="n">
-        <v>57.07593346819701</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M36" t="n">
-        <v>38.00954882322068</v>
+        <v>38.00954882322065</v>
       </c>
       <c r="N36" t="n">
-        <v>17.73005030863851</v>
+        <v>17.73005030863848</v>
       </c>
       <c r="O36" t="n">
-        <v>49.04422963853119</v>
+        <v>49.04422963853116</v>
       </c>
       <c r="P36" t="n">
-        <v>67.92252959633598</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10831,7 +10831,7 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>116.8735187081365</v>
+        <v>116.8735187081364</v>
       </c>
       <c r="N38" t="n">
         <v>111.9488011414238</v>
@@ -10907,19 +10907,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L39" t="n">
-        <v>57.07593346819701</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M39" t="n">
-        <v>38.00954882322068</v>
+        <v>38.00954882322065</v>
       </c>
       <c r="N39" t="n">
-        <v>17.73005030863851</v>
+        <v>17.73005030863848</v>
       </c>
       <c r="O39" t="n">
-        <v>49.04422963853119</v>
+        <v>49.04422963853116</v>
       </c>
       <c r="P39" t="n">
-        <v>67.92252959633598</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11144,7 +11144,7 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L42" t="n">
-        <v>57.07593346819701</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M42" t="n">
         <v>38.00954882322068</v>
@@ -11156,7 +11156,7 @@
         <v>49.04422963853119</v>
       </c>
       <c r="P42" t="n">
-        <v>67.92252959633598</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11381,7 +11381,7 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L45" t="n">
-        <v>57.07593346819698</v>
+        <v>57.07593346819701</v>
       </c>
       <c r="M45" t="n">
         <v>38.00954882322068</v>
@@ -11393,7 +11393,7 @@
         <v>49.04422963853119</v>
       </c>
       <c r="P45" t="n">
-        <v>67.92252959633595</v>
+        <v>67.92252959633598</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22561,49 +22561,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G2" t="n">
-        <v>423.590221574262</v>
+        <v>423.10545754068</v>
       </c>
       <c r="H2" t="n">
-        <v>364.0964285766221</v>
+        <v>359.1318389177005</v>
       </c>
       <c r="I2" t="n">
-        <v>307.6301510626203</v>
+        <v>288.9412856579506</v>
       </c>
       <c r="J2" t="n">
-        <v>220.8145154255395</v>
+        <v>179.6707740303099</v>
       </c>
       <c r="K2" t="n">
-        <v>237.6035998847812</v>
+        <v>175.9397969480259</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2164661104893</v>
+        <v>159.717065880999</v>
       </c>
       <c r="M2" t="n">
-        <v>220.0078473867499</v>
+        <v>134.887524775046</v>
       </c>
       <c r="N2" t="n">
-        <v>221.8064051628984</v>
+        <v>135.3087467407796</v>
       </c>
       <c r="O2" t="n">
-        <v>237.5105870759031</v>
+        <v>155.8333010127153</v>
       </c>
       <c r="P2" t="n">
-        <v>254.5105921674962</v>
+        <v>184.8009181833638</v>
       </c>
       <c r="Q2" t="n">
-        <v>269.9201738698072</v>
+        <v>217.5711118383298</v>
       </c>
       <c r="R2" t="n">
-        <v>298.2075798861928</v>
+        <v>267.7565211616979</v>
       </c>
       <c r="S2" t="n">
-        <v>267.3897500463082</v>
+        <v>256.3431896310585</v>
       </c>
       <c r="T2" t="n">
-        <v>225.5143983667847</v>
+        <v>223.3923438097795</v>
       </c>
       <c r="U2" t="n">
-        <v>248.90160553674</v>
+        <v>248.8628244140534</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -22640,49 +22640,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.7691958893245</v>
+        <v>161.5098242651302</v>
       </c>
       <c r="H3" t="n">
-        <v>145.0346254522244</v>
+        <v>142.5296416080314</v>
       </c>
       <c r="I3" t="n">
-        <v>142.9187864913679</v>
+        <v>133.9886669741497</v>
       </c>
       <c r="J3" t="n">
-        <v>152.7163598114938</v>
+        <v>128.2114292993411</v>
       </c>
       <c r="K3" t="n">
-        <v>132.8321428767296</v>
+        <v>90.94931354355442</v>
       </c>
       <c r="L3" t="n">
-        <v>106.2172906491666</v>
+        <v>49.90065794854367</v>
       </c>
       <c r="M3" t="n">
-        <v>86.78770803595184</v>
+        <v>21.06885395828317</v>
       </c>
       <c r="N3" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>106.1428044880503</v>
+        <v>44.43169704212175</v>
       </c>
       <c r="P3" t="n">
-        <v>113.1372509970743</v>
+        <v>63.60864672438022</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.1032497894857</v>
+        <v>116.9946894800436</v>
       </c>
       <c r="R3" t="n">
-        <v>201.2206403963539</v>
+        <v>185.1168477994441</v>
       </c>
       <c r="S3" t="n">
-        <v>222.0319792704162</v>
+        <v>217.2142651104902</v>
       </c>
       <c r="T3" t="n">
-        <v>233.1353692460508</v>
+        <v>232.0899195853727</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6821109131418</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -22719,49 +22719,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.8667022829468</v>
+        <v>169.6492538260798</v>
       </c>
       <c r="H4" t="n">
-        <v>173.1995317301106</v>
+        <v>171.2662172681476</v>
       </c>
       <c r="I4" t="n">
-        <v>186.7511453295697</v>
+        <v>180.2118771903329</v>
       </c>
       <c r="J4" t="n">
-        <v>176.9853811112088</v>
+        <v>161.6117752107116</v>
       </c>
       <c r="K4" t="n">
-        <v>160.9285108247983</v>
+        <v>135.6649537451591</v>
       </c>
       <c r="L4" t="n">
-        <v>155.0254166605068</v>
+        <v>122.6967615368433</v>
       </c>
       <c r="M4" t="n">
-        <v>156.7664471869165</v>
+        <v>122.6804131709369</v>
       </c>
       <c r="N4" t="n">
-        <v>142.0675024008435</v>
+        <v>108.7919580877318</v>
       </c>
       <c r="O4" t="n">
-        <v>160.1018542306906</v>
+        <v>129.3665032546162</v>
       </c>
       <c r="P4" t="n">
-        <v>166.3254994602277</v>
+        <v>140.0260970042402</v>
       </c>
       <c r="Q4" t="n">
-        <v>204.5868957048492</v>
+        <v>186.3785526484676</v>
       </c>
       <c r="R4" t="n">
-        <v>249.4848999638325</v>
+        <v>239.7076266214307</v>
       </c>
       <c r="S4" t="n">
-        <v>254.7116329346421</v>
+        <v>250.9220993726962</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7883730085969</v>
+        <v>219.8592750565288</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2422093919635</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -22798,49 +22798,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>423.590221574262</v>
+        <v>422.9500466959368</v>
       </c>
       <c r="H5" t="n">
-        <v>364.0964285766221</v>
+        <v>357.5402376039739</v>
       </c>
       <c r="I5" t="n">
-        <v>307.6301510626203</v>
+        <v>282.9498090659874</v>
       </c>
       <c r="J5" t="n">
-        <v>220.8145154255395</v>
+        <v>166.4804728462846</v>
       </c>
       <c r="K5" t="n">
-        <v>237.6035998847812</v>
+        <v>156.1709547060198</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2164661104893</v>
+        <v>135.1920689991825</v>
       </c>
       <c r="M5" t="n">
-        <v>220.0078473867499</v>
+        <v>107.598740283027</v>
       </c>
       <c r="N5" t="n">
-        <v>221.8064051628984</v>
+        <v>107.578401186134</v>
       </c>
       <c r="O5" t="n">
-        <v>237.5105870759031</v>
+        <v>129.6483220454851</v>
       </c>
       <c r="P5" t="n">
-        <v>254.5105921674962</v>
+        <v>162.452644445732</v>
       </c>
       <c r="Q5" t="n">
-        <v>269.9201738698072</v>
+        <v>200.7884889780648</v>
       </c>
       <c r="R5" t="n">
-        <v>298.2075798861928</v>
+        <v>257.9941946855963</v>
       </c>
       <c r="S5" t="n">
-        <v>267.3897500463082</v>
+        <v>252.8017650064723</v>
       </c>
       <c r="T5" t="n">
-        <v>225.5143983667847</v>
+        <v>222.712032836916</v>
       </c>
       <c r="U5" t="n">
-        <v>248.90160553674</v>
+        <v>248.850391546474</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22877,49 +22877,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.7691958893245</v>
+        <v>161.4266721324923</v>
       </c>
       <c r="H6" t="n">
-        <v>145.0346254522244</v>
+        <v>141.7265670638711</v>
       </c>
       <c r="I6" t="n">
-        <v>142.9187864913679</v>
+        <v>131.1257536355219</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7163598114938</v>
+        <v>120.3553762767449</v>
       </c>
       <c r="K6" t="n">
-        <v>132.8321428767296</v>
+        <v>77.5220676342224</v>
       </c>
       <c r="L6" t="n">
-        <v>106.2172906491666</v>
+        <v>31.84606879838252</v>
       </c>
       <c r="M6" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>106.1428044880503</v>
+        <v>24.64768941402779</v>
       </c>
       <c r="P6" t="n">
-        <v>113.1372509970743</v>
+        <v>47.73023641391228</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.1032497894857</v>
+        <v>106.3803926892894</v>
       </c>
       <c r="R6" t="n">
-        <v>201.2206403963539</v>
+        <v>179.9541215291748</v>
       </c>
       <c r="S6" t="n">
-        <v>222.0319792704162</v>
+        <v>215.6697507169758</v>
       </c>
       <c r="T6" t="n">
-        <v>233.1353692460508</v>
+        <v>231.7547581384684</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6766403780998</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22956,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.8667022829468</v>
+        <v>169.5795418713374</v>
       </c>
       <c r="H7" t="n">
-        <v>173.1995317301106</v>
+        <v>170.6464146159834</v>
       </c>
       <c r="I7" t="n">
-        <v>186.7511453295697</v>
+        <v>178.115448587716</v>
       </c>
       <c r="J7" t="n">
-        <v>176.9853811112088</v>
+        <v>156.6831400104238</v>
       </c>
       <c r="K7" t="n">
-        <v>160.9285108247983</v>
+        <v>127.5656920941783</v>
       </c>
       <c r="L7" t="n">
-        <v>155.0254166605068</v>
+        <v>112.3324951017775</v>
       </c>
       <c r="M7" t="n">
-        <v>156.7664471869165</v>
+        <v>111.7527473925439</v>
       </c>
       <c r="N7" t="n">
-        <v>142.0675024008435</v>
+        <v>98.12412777701496</v>
       </c>
       <c r="O7" t="n">
-        <v>160.1018542306906</v>
+        <v>119.5130353242993</v>
       </c>
       <c r="P7" t="n">
-        <v>166.3254994602277</v>
+        <v>131.5947529506683</v>
       </c>
       <c r="Q7" t="n">
-        <v>204.5868957048492</v>
+        <v>180.5411270563561</v>
       </c>
       <c r="R7" t="n">
-        <v>249.4848999638325</v>
+        <v>236.5731236381951</v>
       </c>
       <c r="S7" t="n">
-        <v>254.7116329346421</v>
+        <v>249.7072101250491</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7883730085969</v>
+        <v>219.5614148862658</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2384069217048</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23035,49 +23035,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>423.590221574262</v>
+        <v>422.7564297956197</v>
       </c>
       <c r="H8" t="n">
-        <v>364.0964285766221</v>
+        <v>355.5573585236008</v>
       </c>
       <c r="I8" t="n">
-        <v>307.6301510626203</v>
+        <v>275.4853935165098</v>
       </c>
       <c r="J8" t="n">
-        <v>220.8145154255395</v>
+        <v>150.0474804529905</v>
       </c>
       <c r="K8" t="n">
-        <v>237.6035998847812</v>
+        <v>131.5421589223001</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2164661104893</v>
+        <v>104.6378700023812</v>
       </c>
       <c r="M8" t="n">
-        <v>220.0078473867499</v>
+        <v>73.60130673521041</v>
       </c>
       <c r="N8" t="n">
-        <v>221.8064051628984</v>
+        <v>73.03085362029123</v>
       </c>
       <c r="O8" t="n">
-        <v>237.5105870759031</v>
+        <v>97.02605253217115</v>
       </c>
       <c r="P8" t="n">
-        <v>254.5105921674962</v>
+        <v>134.6102921589981</v>
       </c>
       <c r="Q8" t="n">
-        <v>269.9201738698072</v>
+        <v>179.8800419339395</v>
       </c>
       <c r="R8" t="n">
-        <v>298.2075798861928</v>
+        <v>245.8319070710481</v>
       </c>
       <c r="S8" t="n">
-        <v>267.3897500463082</v>
+        <v>248.3897198904948</v>
       </c>
       <c r="T8" t="n">
-        <v>225.5143983667847</v>
+        <v>221.8644748557776</v>
       </c>
       <c r="U8" t="n">
-        <v>248.90160553674</v>
+        <v>248.8349021944486</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23114,49 +23114,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>161.7691958893245</v>
+        <v>161.32307795795</v>
       </c>
       <c r="H9" t="n">
-        <v>145.0346254522244</v>
+        <v>140.7260654307912</v>
       </c>
       <c r="I9" t="n">
-        <v>142.9187864913679</v>
+        <v>127.5590243804457</v>
       </c>
       <c r="J9" t="n">
-        <v>152.7163598114938</v>
+        <v>110.5679985845671</v>
       </c>
       <c r="K9" t="n">
-        <v>132.8321428767296</v>
+        <v>60.79388024770772</v>
       </c>
       <c r="L9" t="n">
-        <v>106.2172906491666</v>
+        <v>9.35295647066954</v>
       </c>
       <c r="M9" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>106.1428044880503</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>113.1372509970743</v>
+        <v>27.94829268047187</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.1032497894857</v>
+        <v>93.15668718104256</v>
       </c>
       <c r="R9" t="n">
-        <v>201.2206403963539</v>
+        <v>173.5221954992565</v>
       </c>
       <c r="S9" t="n">
-        <v>222.0319792704162</v>
+        <v>213.7455343608933</v>
       </c>
       <c r="T9" t="n">
-        <v>233.1353692460508</v>
+        <v>231.3372009173964</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6698249718799</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23193,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.8667022829468</v>
+        <v>169.492691995355</v>
       </c>
       <c r="H10" t="n">
-        <v>173.1995317301106</v>
+        <v>169.8742402640668</v>
       </c>
       <c r="I10" t="n">
-        <v>186.7511453295697</v>
+        <v>175.503635953626</v>
       </c>
       <c r="J10" t="n">
-        <v>176.9853811112088</v>
+        <v>150.5428537784657</v>
       </c>
       <c r="K10" t="n">
-        <v>160.9285108247983</v>
+        <v>117.4753155936737</v>
       </c>
       <c r="L10" t="n">
-        <v>155.0254166605068</v>
+        <v>99.42028717617094</v>
       </c>
       <c r="M10" t="n">
-        <v>156.7664471869165</v>
+        <v>98.13863456013385</v>
       </c>
       <c r="N10" t="n">
-        <v>142.0675024008435</v>
+        <v>84.83372811872127</v>
       </c>
       <c r="O10" t="n">
-        <v>160.1018542306906</v>
+        <v>107.2372001263458</v>
       </c>
       <c r="P10" t="n">
-        <v>166.3254994602277</v>
+        <v>121.0906552227565</v>
       </c>
       <c r="Q10" t="n">
-        <v>204.5868957048492</v>
+        <v>173.2686342593179</v>
       </c>
       <c r="R10" t="n">
-        <v>249.4848999638325</v>
+        <v>232.668037396294</v>
       </c>
       <c r="S10" t="n">
-        <v>254.7116329346421</v>
+        <v>248.1936536499734</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7883730085969</v>
+        <v>219.1903290525226</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2336696557421</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23284,10 +23284,10 @@
         <v>114.4715681708149</v>
       </c>
       <c r="K11" t="n">
-        <v>78.22308851520964</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L11" t="n">
-        <v>38.49084836766588</v>
+        <v>38.49084836766585</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23296,10 +23296,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>26.40184904719007</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P11" t="n">
-        <v>74.33416843326194</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q11" t="n">
         <v>134.6151832766775</v>
@@ -23363,7 +23363,7 @@
         <v>89.37922894870135</v>
       </c>
       <c r="K12" t="n">
-        <v>24.57889804244017</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23381,7 +23381,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>64.52858488856607</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R12" t="n">
         <v>159.5976691093343</v>
@@ -23442,22 +23442,22 @@
         <v>137.2497006419296</v>
       </c>
       <c r="K13" t="n">
-        <v>95.63058149505842</v>
+        <v>95.63058149505841</v>
       </c>
       <c r="L13" t="n">
-        <v>71.46654840866279</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M13" t="n">
-        <v>68.6653364331837</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N13" t="n">
-        <v>56.06123914516952</v>
+        <v>56.06123914516951</v>
       </c>
       <c r="O13" t="n">
-        <v>80.66114959698194</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P13" t="n">
-        <v>98.35025284028562</v>
+        <v>98.35025284028561</v>
       </c>
       <c r="Q13" t="n">
         <v>157.5243583765053</v>
@@ -23521,10 +23521,10 @@
         <v>114.4715681708149</v>
       </c>
       <c r="K14" t="n">
-        <v>78.22308851520964</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L14" t="n">
-        <v>38.49084836766588</v>
+        <v>38.49084836766585</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23533,10 +23533,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>26.40184904719007</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P14" t="n">
-        <v>74.33416843326194</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q14" t="n">
         <v>134.6151832766775</v>
@@ -23600,7 +23600,7 @@
         <v>89.37922894870135</v>
       </c>
       <c r="K15" t="n">
-        <v>24.57889804244017</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23618,7 +23618,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>64.52858488856607</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R15" t="n">
         <v>159.5976691093343</v>
@@ -23679,22 +23679,22 @@
         <v>137.2497006419296</v>
       </c>
       <c r="K16" t="n">
-        <v>95.63058149505842</v>
+        <v>95.63058149505841</v>
       </c>
       <c r="L16" t="n">
-        <v>71.46654840866279</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M16" t="n">
-        <v>68.6653364331837</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N16" t="n">
-        <v>56.06123914516952</v>
+        <v>56.06123914516951</v>
       </c>
       <c r="O16" t="n">
-        <v>80.66114959698194</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P16" t="n">
-        <v>98.35025284028562</v>
+        <v>98.35025284028561</v>
       </c>
       <c r="Q16" t="n">
         <v>157.5243583765053</v>
@@ -23758,10 +23758,10 @@
         <v>114.4715681708149</v>
       </c>
       <c r="K17" t="n">
-        <v>78.22308851520964</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L17" t="n">
-        <v>38.49084836766588</v>
+        <v>38.49084836766585</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23770,10 +23770,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>26.40184904719007</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P17" t="n">
-        <v>74.33416843326194</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q17" t="n">
         <v>134.6151832766775</v>
@@ -23837,7 +23837,7 @@
         <v>89.37922894870135</v>
       </c>
       <c r="K18" t="n">
-        <v>24.57889804244017</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23855,7 +23855,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>64.52858488856607</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R18" t="n">
         <v>159.5976691093343</v>
@@ -23916,22 +23916,22 @@
         <v>137.2497006419296</v>
       </c>
       <c r="K19" t="n">
-        <v>95.63058149505842</v>
+        <v>95.63058149505841</v>
       </c>
       <c r="L19" t="n">
-        <v>71.46654840866279</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M19" t="n">
-        <v>68.6653364331837</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N19" t="n">
-        <v>56.06123914516952</v>
+        <v>56.06123914516951</v>
       </c>
       <c r="O19" t="n">
-        <v>80.66114959698194</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P19" t="n">
-        <v>98.35025284028562</v>
+        <v>98.35025284028561</v>
       </c>
       <c r="Q19" t="n">
         <v>157.5243583765053</v>
@@ -23998,7 +23998,7 @@
         <v>78.22308851520961</v>
       </c>
       <c r="L20" t="n">
-        <v>38.49084836766588</v>
+        <v>38.49084836766585</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24153,7 +24153,7 @@
         <v>137.2497006419296</v>
       </c>
       <c r="K22" t="n">
-        <v>95.63058149505842</v>
+        <v>95.63058149505841</v>
       </c>
       <c r="L22" t="n">
         <v>71.46654840866277</v>
@@ -24162,13 +24162,13 @@
         <v>68.66533643318368</v>
       </c>
       <c r="N22" t="n">
-        <v>56.06123914516952</v>
+        <v>56.06123914516951</v>
       </c>
       <c r="O22" t="n">
         <v>80.66114959698193</v>
       </c>
       <c r="P22" t="n">
-        <v>98.35025284028562</v>
+        <v>98.35025284028561</v>
       </c>
       <c r="Q22" t="n">
         <v>157.5243583765053</v>
@@ -24232,10 +24232,10 @@
         <v>114.4715681708149</v>
       </c>
       <c r="K23" t="n">
-        <v>78.22308851520964</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L23" t="n">
-        <v>38.49084836766588</v>
+        <v>38.49084836766585</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24244,10 +24244,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>26.40184904719007</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P23" t="n">
-        <v>74.33416843326194</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q23" t="n">
         <v>134.6151832766775</v>
@@ -24311,7 +24311,7 @@
         <v>89.37922894870135</v>
       </c>
       <c r="K24" t="n">
-        <v>24.57889804244017</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24329,7 +24329,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>64.52858488856607</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R24" t="n">
         <v>159.5976691093343</v>
@@ -24390,22 +24390,22 @@
         <v>137.2497006419296</v>
       </c>
       <c r="K25" t="n">
-        <v>95.63058149505842</v>
+        <v>95.63058149505841</v>
       </c>
       <c r="L25" t="n">
-        <v>71.46654840866279</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M25" t="n">
-        <v>68.6653364331837</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N25" t="n">
-        <v>56.06123914516952</v>
+        <v>56.06123914516951</v>
       </c>
       <c r="O25" t="n">
-        <v>80.66114959698194</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P25" t="n">
-        <v>98.35025284028562</v>
+        <v>98.35025284028561</v>
       </c>
       <c r="Q25" t="n">
         <v>157.5243583765053</v>
@@ -24469,10 +24469,10 @@
         <v>114.4715681708149</v>
       </c>
       <c r="K26" t="n">
-        <v>78.22308851520964</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L26" t="n">
-        <v>38.49084836766588</v>
+        <v>38.49084836766585</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24481,10 +24481,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>26.40184904719007</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P26" t="n">
-        <v>74.33416843326194</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q26" t="n">
         <v>134.6151832766775</v>
@@ -24548,7 +24548,7 @@
         <v>89.37922894870135</v>
       </c>
       <c r="K27" t="n">
-        <v>24.57889804244017</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24566,7 +24566,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>64.52858488856607</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R27" t="n">
         <v>159.5976691093343</v>
@@ -24627,22 +24627,22 @@
         <v>137.2497006419296</v>
       </c>
       <c r="K28" t="n">
-        <v>95.63058149505842</v>
+        <v>95.63058149505841</v>
       </c>
       <c r="L28" t="n">
-        <v>71.46654840866279</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M28" t="n">
-        <v>68.6653364331837</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N28" t="n">
-        <v>56.06123914516952</v>
+        <v>56.06123914516951</v>
       </c>
       <c r="O28" t="n">
-        <v>80.66114959698194</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P28" t="n">
-        <v>98.35025284028562</v>
+        <v>98.35025284028561</v>
       </c>
       <c r="Q28" t="n">
         <v>157.5243583765053</v>
@@ -24706,10 +24706,10 @@
         <v>114.4715681708149</v>
       </c>
       <c r="K29" t="n">
-        <v>78.22308851520964</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L29" t="n">
-        <v>38.49084836766588</v>
+        <v>38.49084836766585</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24718,10 +24718,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>26.40184904719007</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P29" t="n">
-        <v>74.33416843326194</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q29" t="n">
         <v>134.6151832766775</v>
@@ -24785,7 +24785,7 @@
         <v>89.37922894870135</v>
       </c>
       <c r="K30" t="n">
-        <v>24.57889804244017</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24803,7 +24803,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>64.52858488856607</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R30" t="n">
         <v>159.5976691093343</v>
@@ -24864,22 +24864,22 @@
         <v>137.2497006419296</v>
       </c>
       <c r="K31" t="n">
-        <v>95.63058149505842</v>
+        <v>95.63058149505841</v>
       </c>
       <c r="L31" t="n">
-        <v>71.46654840866279</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M31" t="n">
-        <v>68.6653364331837</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N31" t="n">
-        <v>56.06123914516952</v>
+        <v>56.06123914516951</v>
       </c>
       <c r="O31" t="n">
-        <v>80.66114959698194</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P31" t="n">
-        <v>98.35025284028562</v>
+        <v>98.35025284028561</v>
       </c>
       <c r="Q31" t="n">
         <v>157.5243583765053</v>
@@ -24946,7 +24946,7 @@
         <v>78.22308851520961</v>
       </c>
       <c r="L32" t="n">
-        <v>38.49084836766588</v>
+        <v>38.49084836766585</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -25101,7 +25101,7 @@
         <v>137.2497006419296</v>
       </c>
       <c r="K34" t="n">
-        <v>95.63058149505842</v>
+        <v>95.63058149505841</v>
       </c>
       <c r="L34" t="n">
         <v>71.46654840866277</v>
@@ -25110,13 +25110,13 @@
         <v>68.66533643318368</v>
       </c>
       <c r="N34" t="n">
-        <v>56.06123914516952</v>
+        <v>56.06123914516951</v>
       </c>
       <c r="O34" t="n">
         <v>80.66114959698193</v>
       </c>
       <c r="P34" t="n">
-        <v>98.35025284028562</v>
+        <v>98.35025284028561</v>
       </c>
       <c r="Q34" t="n">
         <v>157.5243583765053</v>
@@ -25180,10 +25180,10 @@
         <v>114.4715681708149</v>
       </c>
       <c r="K35" t="n">
-        <v>78.22308851520964</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L35" t="n">
-        <v>38.49084836766588</v>
+        <v>38.49084836766585</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -25192,10 +25192,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>26.40184904719007</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P35" t="n">
-        <v>74.33416843326194</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q35" t="n">
         <v>134.6151832766775</v>
@@ -25259,7 +25259,7 @@
         <v>89.37922894870135</v>
       </c>
       <c r="K36" t="n">
-        <v>24.57889804244017</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25277,7 +25277,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>64.52858488856607</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R36" t="n">
         <v>159.5976691093343</v>
@@ -25338,22 +25338,22 @@
         <v>137.2497006419296</v>
       </c>
       <c r="K37" t="n">
-        <v>95.63058149505842</v>
+        <v>95.63058149505841</v>
       </c>
       <c r="L37" t="n">
-        <v>71.46654840866279</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M37" t="n">
-        <v>68.6653364331837</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N37" t="n">
-        <v>56.06123914516952</v>
+        <v>56.06123914516951</v>
       </c>
       <c r="O37" t="n">
-        <v>80.66114959698194</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P37" t="n">
-        <v>98.35025284028562</v>
+        <v>98.35025284028561</v>
       </c>
       <c r="Q37" t="n">
         <v>157.5243583765053</v>
@@ -25417,10 +25417,10 @@
         <v>114.4715681708149</v>
       </c>
       <c r="K38" t="n">
-        <v>78.22308851520964</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L38" t="n">
-        <v>38.49084836766588</v>
+        <v>38.49084836766585</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -25429,10 +25429,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>26.40184904719007</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P38" t="n">
-        <v>74.33416843326194</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q38" t="n">
         <v>134.6151832766775</v>
@@ -25496,7 +25496,7 @@
         <v>89.37922894870135</v>
       </c>
       <c r="K39" t="n">
-        <v>24.57889804244017</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25514,7 +25514,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>64.52858488856607</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R39" t="n">
         <v>159.5976691093343</v>
@@ -25575,22 +25575,22 @@
         <v>137.2497006419296</v>
       </c>
       <c r="K40" t="n">
-        <v>95.63058149505842</v>
+        <v>95.63058149505841</v>
       </c>
       <c r="L40" t="n">
-        <v>71.46654840866279</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M40" t="n">
-        <v>68.6653364331837</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N40" t="n">
-        <v>56.06123914516952</v>
+        <v>56.06123914516951</v>
       </c>
       <c r="O40" t="n">
-        <v>80.66114959698194</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P40" t="n">
-        <v>98.35025284028562</v>
+        <v>98.35025284028561</v>
       </c>
       <c r="Q40" t="n">
         <v>157.5243583765053</v>
@@ -25654,7 +25654,7 @@
         <v>114.4715681708149</v>
       </c>
       <c r="K41" t="n">
-        <v>78.22308851520964</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L41" t="n">
         <v>38.49084836766588</v>
@@ -25666,10 +25666,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>26.40184904719007</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P41" t="n">
-        <v>74.33416843326194</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q41" t="n">
         <v>134.6151832766775</v>
@@ -25733,7 +25733,7 @@
         <v>89.37922894870135</v>
       </c>
       <c r="K42" t="n">
-        <v>24.57889804244017</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25751,7 +25751,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>64.52858488856607</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R42" t="n">
         <v>159.5976691093343</v>
@@ -25815,16 +25815,16 @@
         <v>95.63058149505842</v>
       </c>
       <c r="L43" t="n">
-        <v>71.46654840866279</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M43" t="n">
-        <v>68.6653364331837</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N43" t="n">
         <v>56.06123914516952</v>
       </c>
       <c r="O43" t="n">
-        <v>80.66114959698194</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P43" t="n">
         <v>98.35025284028562</v>
@@ -25891,7 +25891,7 @@
         <v>114.4715681708149</v>
       </c>
       <c r="K44" t="n">
-        <v>78.22308851520961</v>
+        <v>78.22308851520964</v>
       </c>
       <c r="L44" t="n">
         <v>38.49084836766588</v>
@@ -25903,10 +25903,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>26.40184904719004</v>
+        <v>26.40184904719007</v>
       </c>
       <c r="P44" t="n">
-        <v>74.33416843326191</v>
+        <v>74.33416843326194</v>
       </c>
       <c r="Q44" t="n">
         <v>134.6151832766775</v>
@@ -25970,7 +25970,7 @@
         <v>89.37922894870135</v>
       </c>
       <c r="K45" t="n">
-        <v>24.57889804244016</v>
+        <v>24.57889804244017</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>64.52858488856606</v>
+        <v>64.52858488856607</v>
       </c>
       <c r="R45" t="n">
         <v>159.5976691093343</v>
@@ -26052,16 +26052,16 @@
         <v>95.63058149505842</v>
       </c>
       <c r="L46" t="n">
-        <v>71.46654840866277</v>
+        <v>71.46654840866279</v>
       </c>
       <c r="M46" t="n">
-        <v>68.66533643318368</v>
+        <v>68.6653364331837</v>
       </c>
       <c r="N46" t="n">
         <v>56.06123914516952</v>
       </c>
       <c r="O46" t="n">
-        <v>80.66114959698193</v>
+        <v>80.66114959698194</v>
       </c>
       <c r="P46" t="n">
         <v>98.35025284028562</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>142494.3524630522</v>
+        <v>253008.0156450206</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>142494.3524630522</v>
+        <v>287039.3007247055</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>142494.3524630522</v>
+        <v>327739.5832301805</v>
       </c>
     </row>
     <row r="5">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23359.72991197576</v>
+        <v>41778.67377563719</v>
       </c>
       <c r="C2" t="n">
-        <v>23359.72991197576</v>
+        <v>47454.37530106134</v>
       </c>
       <c r="D2" t="n">
-        <v>23359.72991197576</v>
+        <v>54247.15288706498</v>
       </c>
       <c r="E2" t="n">
-        <v>67777.48636514629</v>
+        <v>67777.48636514632</v>
       </c>
       <c r="F2" t="n">
-        <v>67777.48636514629</v>
+        <v>67777.48636514632</v>
       </c>
       <c r="G2" t="n">
-        <v>67777.48636514629</v>
+        <v>67777.48636514632</v>
       </c>
       <c r="H2" t="n">
-        <v>67777.48636514629</v>
+        <v>67777.48636514632</v>
       </c>
       <c r="I2" t="n">
-        <v>67777.48636514629</v>
+        <v>67777.48636514632</v>
       </c>
       <c r="J2" t="n">
-        <v>67777.48636514629</v>
+        <v>67777.48636514632</v>
       </c>
       <c r="K2" t="n">
-        <v>67777.48636514629</v>
+        <v>67777.48636514632</v>
       </c>
       <c r="L2" t="n">
-        <v>67777.48636514629</v>
+        <v>67777.48636514632</v>
       </c>
       <c r="M2" t="n">
-        <v>67777.48636514631</v>
+        <v>67777.48636514632</v>
       </c>
       <c r="N2" t="n">
-        <v>67777.48636514631</v>
+        <v>67777.48636514632</v>
       </c>
       <c r="O2" t="n">
         <v>67777.48636514629</v>
       </c>
       <c r="P2" t="n">
-        <v>67777.48636514629</v>
+        <v>67777.48636514631</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>116197.325017146</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>35202.45972866162</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>41246.78573697109</v>
       </c>
       <c r="E3" t="n">
-        <v>250398.5673986983</v>
+        <v>83768.20183496235</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>2335.972991197576</v>
       </c>
       <c r="C4" t="n">
-        <v>2335.972991197576</v>
+        <v>2313.048918337535</v>
       </c>
       <c r="D4" t="n">
-        <v>2335.972991197576</v>
+        <v>2256.665907790749</v>
       </c>
       <c r="E4" t="n">
         <v>2017.061568789217</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33627.6</v>
+        <v>36256.35416310675</v>
       </c>
       <c r="C5" t="n">
-        <v>33627.6</v>
+        <v>37099.10832143807</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>38149.04436763299</v>
       </c>
       <c r="E5" t="n">
-        <v>6794.459031509246</v>
+        <v>6794.459031509247</v>
       </c>
       <c r="F5" t="n">
-        <v>6794.459031509246</v>
+        <v>6794.459031509247</v>
       </c>
       <c r="G5" t="n">
-        <v>6794.459031509246</v>
+        <v>6794.459031509247</v>
       </c>
       <c r="H5" t="n">
         <v>6794.459031509247</v>
       </c>
       <c r="I5" t="n">
-        <v>6794.459031509246</v>
+        <v>6794.459031509247</v>
       </c>
       <c r="J5" t="n">
-        <v>6794.459031509246</v>
+        <v>6794.459031509247</v>
       </c>
       <c r="K5" t="n">
-        <v>6794.459031509246</v>
+        <v>6794.459031509247</v>
       </c>
       <c r="L5" t="n">
         <v>6794.459031509247</v>
       </c>
       <c r="M5" t="n">
+        <v>6794.459031509247</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6794.459031509247</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6794.459031509247</v>
+      </c>
+      <c r="P5" t="n">
         <v>6794.459031509246</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6794.459031509246</v>
-      </c>
-      <c r="O5" t="n">
-        <v>6794.459031509246</v>
-      </c>
-      <c r="P5" t="n">
-        <v>6794.459031509247</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12603.84307922182</v>
+        <v>-132653.2473426794</v>
       </c>
       <c r="C6" t="n">
-        <v>-12603.84307922182</v>
+        <v>-46234.94046169976</v>
       </c>
       <c r="D6" t="n">
-        <v>-12603.84307922182</v>
+        <v>-45800.76416105336</v>
       </c>
       <c r="E6" t="n">
-        <v>-191432.6016338505</v>
+        <v>-41844.62375802988</v>
       </c>
       <c r="F6" t="n">
-        <v>58965.96576484783</v>
+        <v>41923.57807693248</v>
       </c>
       <c r="G6" t="n">
-        <v>58965.96576484783</v>
+        <v>41923.57807693248</v>
       </c>
       <c r="H6" t="n">
-        <v>58965.96576484783</v>
+        <v>41923.57807693248</v>
       </c>
       <c r="I6" t="n">
-        <v>58965.96576484783</v>
+        <v>41923.57807693248</v>
       </c>
       <c r="J6" t="n">
-        <v>58965.96576484783</v>
+        <v>41923.57807693248</v>
       </c>
       <c r="K6" t="n">
-        <v>58965.96576484783</v>
+        <v>41923.57807693248</v>
       </c>
       <c r="L6" t="n">
-        <v>58965.96576484783</v>
+        <v>41923.57807693248</v>
       </c>
       <c r="M6" t="n">
-        <v>58965.96576484785</v>
+        <v>41923.57807693248</v>
       </c>
       <c r="N6" t="n">
-        <v>58965.96576484785</v>
+        <v>41923.57807693248</v>
       </c>
       <c r="O6" t="n">
-        <v>58965.96576484783</v>
+        <v>41923.57807693245</v>
       </c>
       <c r="P6" t="n">
-        <v>58965.96576484783</v>
+        <v>41923.57807693246</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>120.5850533535205</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>159.2435009833979</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>207.405704937293</v>
       </c>
       <c r="E3" t="n">
-        <v>311.6724326380388</v>
+        <v>311.6724326380389</v>
       </c>
       <c r="F3" t="n">
-        <v>311.6724326380388</v>
+        <v>311.6724326380389</v>
       </c>
       <c r="G3" t="n">
-        <v>311.6724326380388</v>
+        <v>311.6724326380389</v>
       </c>
       <c r="H3" t="n">
         <v>311.6724326380389</v>
       </c>
       <c r="I3" t="n">
-        <v>311.6724326380388</v>
+        <v>311.6724326380389</v>
       </c>
       <c r="J3" t="n">
-        <v>311.6724326380388</v>
+        <v>311.6724326380389</v>
       </c>
       <c r="K3" t="n">
-        <v>311.6724326380388</v>
+        <v>311.6724326380389</v>
       </c>
       <c r="L3" t="n">
         <v>311.6724326380389</v>
       </c>
       <c r="M3" t="n">
+        <v>311.6724326380389</v>
+      </c>
+      <c r="N3" t="n">
+        <v>311.6724326380389</v>
+      </c>
+      <c r="O3" t="n">
+        <v>311.6724326380389</v>
+      </c>
+      <c r="P3" t="n">
         <v>311.6724326380388</v>
-      </c>
-      <c r="N3" t="n">
-        <v>311.6724326380388</v>
-      </c>
-      <c r="O3" t="n">
-        <v>311.6724326380388</v>
-      </c>
-      <c r="P3" t="n">
-        <v>311.6724326380389</v>
       </c>
     </row>
     <row r="4">
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>120.5850533535205</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>38.6584476298774</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>48.16220395389507</v>
       </c>
       <c r="E3" t="n">
-        <v>311.6724326380388</v>
+        <v>104.2667277007459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.4847640335819915</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.964589658921573</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>18.68886540466975</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>41.1437413952296</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>61.66380293675531</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>76.49940022949021</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>85.12032261170394</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>86.49765842211877</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>81.67728606318785</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>69.70967398413242</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>52.34906203147733</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>30.4510587244948</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>11.04656041524964</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2.122054557005169</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.03878112268655932</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.2593716241943648</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.504983844192945</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>8.930119517218264</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>24.50493051215269</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>41.88282933317514</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>56.31663270062295</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>65.71885407766867</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>67.45823659255106</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>61.71110744592855</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>49.52860427269411</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>33.10856030944208</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>16.10379259690978</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>4.817714159926028</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.045449660678163</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.01706392264436611</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.2174484568670041</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.933314461963002</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.539268139236817</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.37360590049719</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>25.2635570796392</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>32.32865512366351</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>34.08603401597956</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>33.27554431311167</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>30.73535097607438</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>26.29940245598747</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>18.20834305638159</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>9.777273342401838</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>3.78953356194588</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.9290979520681084</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.01186082492001842</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.6401748783252171</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>6.556190972648132</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>24.68034199663296</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>54.33404257925495</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>81.4326451787614</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>101.0243971113068</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>112.4091071037229</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>114.2280039767644</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>107.862265030418</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>92.05794772176421</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>69.13168489174234</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.21338520059646</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>14.5879850398359</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>2.80236552986864</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.05121399026601736</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.3425237568322144</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3.308058388353229</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>11.79303285584598</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>32.36098353474882</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>55.31007524250717</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>74.3712218507841</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>86.78770803595184</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>89.08472042277842</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>81.49511507402251</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>65.40701458316205</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>43.72285710019635</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>21.26651886717907</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>6.362228553440469</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.380611107582477</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.0225344576863299</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.287160411609406</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2.553117114127266</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>8.635696741853776</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>20.302241100785</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>33.36281873062007</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>42.69292155872933</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>45.01369979437261</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>43.9433746238285</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>40.58881890639133</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>34.73074650955942</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>24.04576864849308</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>12.91177632563747</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>5.00442280959301</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.226958122331098</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.01566329517869489</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.8337917786423832</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>8.539070053021309</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>32.1447575461105</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>70.76703497254903</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>106.0614409624811</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>131.578596108108</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>146.4065406515395</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>148.7755515426072</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>140.4845345437319</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>119.9003000084981</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>90.04013193586772</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>52.37567281514465</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>19.00003015581332</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>3.649923511007034</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.06670334229139063</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.4461179313745547</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>4.3085600214332</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>15.35976211092217</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>42.14836122692668</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>72.03826262902184</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>96.86433417849707</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>113.0361091908246</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>116.0278386516654</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>106.1428044880503</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>85.18895831660247</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>56.94656260844316</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>27.69844489709736</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>8.286444909522974</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.798168328654455</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.02934986390622072</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.3740102875918397</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3.325291466043814</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>11.24750937594369</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>26.44252733274307</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>43.45319523112465</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>55.60512948433589</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>58.62781262678265</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>57.23377428212221</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>52.86465410434479</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>45.23484423747121</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>31.31826144553124</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>16.81686256753854</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>6.517979284668695</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.598043956074224</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.0204005611413731</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>12.83182030453995</v>
       </c>
       <c r="I11" t="n">
-        <v>48.30452847950952</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J11" t="n">
         <v>106.3429472547246</v>
@@ -31785,13 +31785,13 @@
         <v>135.3049905931297</v>
       </c>
       <c r="R11" t="n">
-        <v>78.70590330331339</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S11" t="n">
         <v>28.5517007386505</v>
       </c>
       <c r="T11" t="n">
-        <v>5.484808337177948</v>
+        <v>5.484808337177949</v>
       </c>
       <c r="U11" t="n">
         <v>0.1002363602453993</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H12" t="n">
-        <v>6.474553742160015</v>
+        <v>6.474553742160016</v>
       </c>
       <c r="I12" t="n">
         <v>23.08140185102458</v>
@@ -31849,7 +31849,7 @@
         <v>145.559846959869</v>
       </c>
       <c r="M12" t="n">
-        <v>169.8614757877311</v>
+        <v>169.8614757877312</v>
       </c>
       <c r="N12" t="n">
         <v>174.3572036132365</v>
@@ -31861,7 +31861,7 @@
         <v>128.015041247122</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.57466490091964</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R12" t="n">
         <v>41.62297128701962</v>
@@ -31913,31 +31913,31 @@
         <v>0.5620322555767913</v>
       </c>
       <c r="H13" t="n">
-        <v>4.996977690491838</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I13" t="n">
         <v>16.9018427404366</v>
       </c>
       <c r="J13" t="n">
-        <v>39.73568046927914</v>
+        <v>39.73568046927915</v>
       </c>
       <c r="K13" t="n">
-        <v>65.29792932973992</v>
+        <v>65.29792932973993</v>
       </c>
       <c r="L13" t="n">
-        <v>83.55886825184405</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M13" t="n">
-        <v>88.10111075373281</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N13" t="n">
-        <v>86.00626325567394</v>
+        <v>86.00626325567396</v>
       </c>
       <c r="O13" t="n">
-        <v>79.44070463370866</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97524661994207</v>
+        <v>67.97524661994208</v>
       </c>
       <c r="Q13" t="n">
         <v>47.06253732834386</v>
@@ -31946,13 +31946,13 @@
         <v>25.27101396438917</v>
       </c>
       <c r="S13" t="n">
-        <v>9.794689399460985</v>
+        <v>9.794689399460987</v>
       </c>
       <c r="T13" t="n">
         <v>2.40141054655538</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>12.83182030453995</v>
       </c>
       <c r="I14" t="n">
-        <v>48.30452847950952</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J14" t="n">
         <v>106.3429472547246</v>
@@ -32022,13 +32022,13 @@
         <v>135.3049905931297</v>
       </c>
       <c r="R14" t="n">
-        <v>78.70590330331339</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S14" t="n">
         <v>28.5517007386505</v>
       </c>
       <c r="T14" t="n">
-        <v>5.484808337177948</v>
+        <v>5.484808337177949</v>
       </c>
       <c r="U14" t="n">
         <v>0.1002363602453993</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H15" t="n">
-        <v>6.474553742160015</v>
+        <v>6.474553742160016</v>
       </c>
       <c r="I15" t="n">
         <v>23.08140185102458</v>
@@ -32086,7 +32086,7 @@
         <v>145.559846959869</v>
       </c>
       <c r="M15" t="n">
-        <v>169.8614757877311</v>
+        <v>169.8614757877312</v>
       </c>
       <c r="N15" t="n">
         <v>174.3572036132365</v>
@@ -32098,7 +32098,7 @@
         <v>128.015041247122</v>
       </c>
       <c r="Q15" t="n">
-        <v>85.57466490091964</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R15" t="n">
         <v>41.62297128701962</v>
@@ -32150,31 +32150,31 @@
         <v>0.5620322555767913</v>
       </c>
       <c r="H16" t="n">
-        <v>4.996977690491838</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I16" t="n">
         <v>16.9018427404366</v>
       </c>
       <c r="J16" t="n">
-        <v>39.73568046927914</v>
+        <v>39.73568046927915</v>
       </c>
       <c r="K16" t="n">
-        <v>65.29792932973992</v>
+        <v>65.29792932973993</v>
       </c>
       <c r="L16" t="n">
-        <v>83.55886825184405</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M16" t="n">
-        <v>88.10111075373281</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N16" t="n">
-        <v>86.00626325567394</v>
+        <v>86.00626325567396</v>
       </c>
       <c r="O16" t="n">
-        <v>79.44070463370866</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97524661994207</v>
+        <v>67.97524661994208</v>
       </c>
       <c r="Q16" t="n">
         <v>47.06253732834386</v>
@@ -32183,13 +32183,13 @@
         <v>25.27101396438917</v>
       </c>
       <c r="S16" t="n">
-        <v>9.794689399460985</v>
+        <v>9.794689399460987</v>
       </c>
       <c r="T16" t="n">
         <v>2.40141054655538</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>12.83182030453995</v>
       </c>
       <c r="I17" t="n">
-        <v>48.30452847950952</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J17" t="n">
         <v>106.3429472547246</v>
@@ -32259,13 +32259,13 @@
         <v>135.3049905931297</v>
       </c>
       <c r="R17" t="n">
-        <v>78.70590330331339</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S17" t="n">
         <v>28.5517007386505</v>
       </c>
       <c r="T17" t="n">
-        <v>5.484808337177948</v>
+        <v>5.484808337177949</v>
       </c>
       <c r="U17" t="n">
         <v>0.1002363602453993</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H18" t="n">
-        <v>6.474553742160015</v>
+        <v>6.474553742160016</v>
       </c>
       <c r="I18" t="n">
         <v>23.08140185102458</v>
@@ -32323,7 +32323,7 @@
         <v>145.559846959869</v>
       </c>
       <c r="M18" t="n">
-        <v>169.8614757877311</v>
+        <v>169.8614757877312</v>
       </c>
       <c r="N18" t="n">
         <v>174.3572036132365</v>
@@ -32335,7 +32335,7 @@
         <v>128.015041247122</v>
       </c>
       <c r="Q18" t="n">
-        <v>85.57466490091964</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R18" t="n">
         <v>41.62297128701962</v>
@@ -32387,31 +32387,31 @@
         <v>0.5620322555767913</v>
       </c>
       <c r="H19" t="n">
-        <v>4.996977690491838</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I19" t="n">
         <v>16.9018427404366</v>
       </c>
       <c r="J19" t="n">
-        <v>39.73568046927914</v>
+        <v>39.73568046927915</v>
       </c>
       <c r="K19" t="n">
-        <v>65.29792932973992</v>
+        <v>65.29792932973993</v>
       </c>
       <c r="L19" t="n">
-        <v>83.55886825184405</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M19" t="n">
-        <v>88.10111075373281</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N19" t="n">
-        <v>86.00626325567394</v>
+        <v>86.00626325567396</v>
       </c>
       <c r="O19" t="n">
-        <v>79.44070463370866</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97524661994207</v>
+        <v>67.97524661994208</v>
       </c>
       <c r="Q19" t="n">
         <v>47.06253732834386</v>
@@ -32420,13 +32420,13 @@
         <v>25.27101396438917</v>
       </c>
       <c r="S19" t="n">
-        <v>9.794689399460985</v>
+        <v>9.794689399460987</v>
       </c>
       <c r="T19" t="n">
         <v>2.40141054655538</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32502,7 +32502,7 @@
         <v>28.5517007386505</v>
       </c>
       <c r="T20" t="n">
-        <v>5.484808337177948</v>
+        <v>5.484808337177949</v>
       </c>
       <c r="U20" t="n">
         <v>0.1002363602453993</v>
@@ -32545,7 +32545,7 @@
         <v>0.6703897607686119</v>
       </c>
       <c r="H21" t="n">
-        <v>6.474553742160015</v>
+        <v>6.474553742160016</v>
       </c>
       <c r="I21" t="n">
         <v>23.08140185102458</v>
@@ -32560,7 +32560,7 @@
         <v>145.559846959869</v>
       </c>
       <c r="M21" t="n">
-        <v>169.8614757877311</v>
+        <v>169.8614757877312</v>
       </c>
       <c r="N21" t="n">
         <v>174.3572036132365</v>
@@ -32630,10 +32630,10 @@
         <v>16.9018427404366</v>
       </c>
       <c r="J22" t="n">
-        <v>39.73568046927914</v>
+        <v>39.73568046927915</v>
       </c>
       <c r="K22" t="n">
-        <v>65.29792932973992</v>
+        <v>65.29792932973993</v>
       </c>
       <c r="L22" t="n">
         <v>83.55886825184406</v>
@@ -32642,13 +32642,13 @@
         <v>88.10111075373283</v>
       </c>
       <c r="N22" t="n">
-        <v>86.00626325567394</v>
+        <v>86.00626325567396</v>
       </c>
       <c r="O22" t="n">
         <v>79.44070463370868</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97524661994207</v>
+        <v>67.97524661994208</v>
       </c>
       <c r="Q22" t="n">
         <v>47.06253732834386</v>
@@ -32657,7 +32657,7 @@
         <v>25.27101396438917</v>
       </c>
       <c r="S22" t="n">
-        <v>9.794689399460985</v>
+        <v>9.794689399460987</v>
       </c>
       <c r="T22" t="n">
         <v>2.40141054655538</v>
@@ -32706,7 +32706,7 @@
         <v>12.83182030453995</v>
       </c>
       <c r="I23" t="n">
-        <v>48.30452847950952</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J23" t="n">
         <v>106.3429472547246</v>
@@ -32733,13 +32733,13 @@
         <v>135.3049905931297</v>
       </c>
       <c r="R23" t="n">
-        <v>78.70590330331339</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S23" t="n">
         <v>28.5517007386505</v>
       </c>
       <c r="T23" t="n">
-        <v>5.484808337177948</v>
+        <v>5.484808337177949</v>
       </c>
       <c r="U23" t="n">
         <v>0.1002363602453993</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H24" t="n">
-        <v>6.474553742160015</v>
+        <v>6.474553742160016</v>
       </c>
       <c r="I24" t="n">
         <v>23.08140185102458</v>
@@ -32797,7 +32797,7 @@
         <v>145.559846959869</v>
       </c>
       <c r="M24" t="n">
-        <v>169.8614757877311</v>
+        <v>169.8614757877312</v>
       </c>
       <c r="N24" t="n">
         <v>174.3572036132365</v>
@@ -32809,7 +32809,7 @@
         <v>128.015041247122</v>
       </c>
       <c r="Q24" t="n">
-        <v>85.57466490091964</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R24" t="n">
         <v>41.62297128701962</v>
@@ -32861,31 +32861,31 @@
         <v>0.5620322555767913</v>
       </c>
       <c r="H25" t="n">
-        <v>4.996977690491838</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I25" t="n">
         <v>16.9018427404366</v>
       </c>
       <c r="J25" t="n">
-        <v>39.73568046927914</v>
+        <v>39.73568046927915</v>
       </c>
       <c r="K25" t="n">
-        <v>65.29792932973992</v>
+        <v>65.29792932973993</v>
       </c>
       <c r="L25" t="n">
-        <v>83.55886825184405</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M25" t="n">
-        <v>88.10111075373281</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N25" t="n">
-        <v>86.00626325567394</v>
+        <v>86.00626325567396</v>
       </c>
       <c r="O25" t="n">
-        <v>79.44070463370866</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97524661994207</v>
+        <v>67.97524661994208</v>
       </c>
       <c r="Q25" t="n">
         <v>47.06253732834386</v>
@@ -32894,13 +32894,13 @@
         <v>25.27101396438917</v>
       </c>
       <c r="S25" t="n">
-        <v>9.794689399460985</v>
+        <v>9.794689399460987</v>
       </c>
       <c r="T25" t="n">
         <v>2.40141054655538</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>12.83182030453995</v>
       </c>
       <c r="I26" t="n">
-        <v>48.30452847950952</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J26" t="n">
         <v>106.3429472547246</v>
@@ -32970,13 +32970,13 @@
         <v>135.3049905931297</v>
       </c>
       <c r="R26" t="n">
-        <v>78.70590330331339</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S26" t="n">
         <v>28.5517007386505</v>
       </c>
       <c r="T26" t="n">
-        <v>5.484808337177948</v>
+        <v>5.484808337177949</v>
       </c>
       <c r="U26" t="n">
         <v>0.1002363602453993</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H27" t="n">
-        <v>6.474553742160015</v>
+        <v>6.474553742160016</v>
       </c>
       <c r="I27" t="n">
         <v>23.08140185102458</v>
@@ -33034,7 +33034,7 @@
         <v>145.559846959869</v>
       </c>
       <c r="M27" t="n">
-        <v>169.8614757877311</v>
+        <v>169.8614757877312</v>
       </c>
       <c r="N27" t="n">
         <v>174.3572036132365</v>
@@ -33046,7 +33046,7 @@
         <v>128.015041247122</v>
       </c>
       <c r="Q27" t="n">
-        <v>85.57466490091964</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R27" t="n">
         <v>41.62297128701962</v>
@@ -33098,31 +33098,31 @@
         <v>0.5620322555767913</v>
       </c>
       <c r="H28" t="n">
-        <v>4.996977690491838</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I28" t="n">
         <v>16.9018427404366</v>
       </c>
       <c r="J28" t="n">
-        <v>39.73568046927914</v>
+        <v>39.73568046927915</v>
       </c>
       <c r="K28" t="n">
-        <v>65.29792932973992</v>
+        <v>65.29792932973993</v>
       </c>
       <c r="L28" t="n">
-        <v>83.55886825184405</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M28" t="n">
-        <v>88.10111075373281</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N28" t="n">
-        <v>86.00626325567394</v>
+        <v>86.00626325567396</v>
       </c>
       <c r="O28" t="n">
-        <v>79.44070463370866</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P28" t="n">
-        <v>67.97524661994207</v>
+        <v>67.97524661994208</v>
       </c>
       <c r="Q28" t="n">
         <v>47.06253732834386</v>
@@ -33131,13 +33131,13 @@
         <v>25.27101396438917</v>
       </c>
       <c r="S28" t="n">
-        <v>9.794689399460985</v>
+        <v>9.794689399460987</v>
       </c>
       <c r="T28" t="n">
         <v>2.40141054655538</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>12.83182030453995</v>
       </c>
       <c r="I29" t="n">
-        <v>48.30452847950952</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J29" t="n">
         <v>106.3429472547246</v>
@@ -33207,13 +33207,13 @@
         <v>135.3049905931297</v>
       </c>
       <c r="R29" t="n">
-        <v>78.70590330331339</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S29" t="n">
         <v>28.5517007386505</v>
       </c>
       <c r="T29" t="n">
-        <v>5.484808337177948</v>
+        <v>5.484808337177949</v>
       </c>
       <c r="U29" t="n">
         <v>0.1002363602453993</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H30" t="n">
-        <v>6.474553742160015</v>
+        <v>6.474553742160016</v>
       </c>
       <c r="I30" t="n">
         <v>23.08140185102458</v>
@@ -33271,7 +33271,7 @@
         <v>145.559846959869</v>
       </c>
       <c r="M30" t="n">
-        <v>169.8614757877311</v>
+        <v>169.8614757877312</v>
       </c>
       <c r="N30" t="n">
         <v>174.3572036132365</v>
@@ -33283,7 +33283,7 @@
         <v>128.015041247122</v>
       </c>
       <c r="Q30" t="n">
-        <v>85.57466490091964</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R30" t="n">
         <v>41.62297128701962</v>
@@ -33335,31 +33335,31 @@
         <v>0.5620322555767913</v>
       </c>
       <c r="H31" t="n">
-        <v>4.996977690491838</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I31" t="n">
         <v>16.9018427404366</v>
       </c>
       <c r="J31" t="n">
-        <v>39.73568046927914</v>
+        <v>39.73568046927915</v>
       </c>
       <c r="K31" t="n">
-        <v>65.29792932973992</v>
+        <v>65.29792932973993</v>
       </c>
       <c r="L31" t="n">
-        <v>83.55886825184405</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M31" t="n">
-        <v>88.10111075373281</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N31" t="n">
-        <v>86.00626325567394</v>
+        <v>86.00626325567396</v>
       </c>
       <c r="O31" t="n">
-        <v>79.44070463370866</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97524661994207</v>
+        <v>67.97524661994208</v>
       </c>
       <c r="Q31" t="n">
         <v>47.06253732834386</v>
@@ -33368,13 +33368,13 @@
         <v>25.27101396438917</v>
       </c>
       <c r="S31" t="n">
-        <v>9.794689399460985</v>
+        <v>9.794689399460987</v>
       </c>
       <c r="T31" t="n">
         <v>2.40141054655538</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33450,7 +33450,7 @@
         <v>28.5517007386505</v>
       </c>
       <c r="T32" t="n">
-        <v>5.484808337177948</v>
+        <v>5.484808337177949</v>
       </c>
       <c r="U32" t="n">
         <v>0.1002363602453993</v>
@@ -33493,7 +33493,7 @@
         <v>0.6703897607686119</v>
       </c>
       <c r="H33" t="n">
-        <v>6.474553742160015</v>
+        <v>6.474553742160016</v>
       </c>
       <c r="I33" t="n">
         <v>23.08140185102458</v>
@@ -33508,7 +33508,7 @@
         <v>145.559846959869</v>
       </c>
       <c r="M33" t="n">
-        <v>169.8614757877311</v>
+        <v>169.8614757877312</v>
       </c>
       <c r="N33" t="n">
         <v>174.3572036132365</v>
@@ -33578,10 +33578,10 @@
         <v>16.9018427404366</v>
       </c>
       <c r="J34" t="n">
-        <v>39.73568046927914</v>
+        <v>39.73568046927915</v>
       </c>
       <c r="K34" t="n">
-        <v>65.29792932973992</v>
+        <v>65.29792932973993</v>
       </c>
       <c r="L34" t="n">
         <v>83.55886825184406</v>
@@ -33590,13 +33590,13 @@
         <v>88.10111075373283</v>
       </c>
       <c r="N34" t="n">
-        <v>86.00626325567394</v>
+        <v>86.00626325567396</v>
       </c>
       <c r="O34" t="n">
         <v>79.44070463370868</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97524661994207</v>
+        <v>67.97524661994208</v>
       </c>
       <c r="Q34" t="n">
         <v>47.06253732834386</v>
@@ -33605,7 +33605,7 @@
         <v>25.27101396438917</v>
       </c>
       <c r="S34" t="n">
-        <v>9.794689399460985</v>
+        <v>9.794689399460987</v>
       </c>
       <c r="T34" t="n">
         <v>2.40141054655538</v>
@@ -33654,7 +33654,7 @@
         <v>12.83182030453995</v>
       </c>
       <c r="I35" t="n">
-        <v>48.30452847950952</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J35" t="n">
         <v>106.3429472547246</v>
@@ -33681,13 +33681,13 @@
         <v>135.3049905931297</v>
       </c>
       <c r="R35" t="n">
-        <v>78.70590330331339</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S35" t="n">
         <v>28.5517007386505</v>
       </c>
       <c r="T35" t="n">
-        <v>5.484808337177948</v>
+        <v>5.484808337177949</v>
       </c>
       <c r="U35" t="n">
         <v>0.1002363602453993</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H36" t="n">
-        <v>6.474553742160015</v>
+        <v>6.474553742160016</v>
       </c>
       <c r="I36" t="n">
         <v>23.08140185102458</v>
@@ -33745,7 +33745,7 @@
         <v>145.559846959869</v>
       </c>
       <c r="M36" t="n">
-        <v>169.8614757877311</v>
+        <v>169.8614757877312</v>
       </c>
       <c r="N36" t="n">
         <v>174.3572036132365</v>
@@ -33757,7 +33757,7 @@
         <v>128.015041247122</v>
       </c>
       <c r="Q36" t="n">
-        <v>85.57466490091964</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R36" t="n">
         <v>41.62297128701962</v>
@@ -33809,31 +33809,31 @@
         <v>0.5620322555767913</v>
       </c>
       <c r="H37" t="n">
-        <v>4.996977690491838</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I37" t="n">
         <v>16.9018427404366</v>
       </c>
       <c r="J37" t="n">
-        <v>39.73568046927914</v>
+        <v>39.73568046927915</v>
       </c>
       <c r="K37" t="n">
-        <v>65.29792932973992</v>
+        <v>65.29792932973993</v>
       </c>
       <c r="L37" t="n">
-        <v>83.55886825184405</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M37" t="n">
-        <v>88.10111075373281</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N37" t="n">
-        <v>86.00626325567394</v>
+        <v>86.00626325567396</v>
       </c>
       <c r="O37" t="n">
-        <v>79.44070463370866</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97524661994207</v>
+        <v>67.97524661994208</v>
       </c>
       <c r="Q37" t="n">
         <v>47.06253732834386</v>
@@ -33842,13 +33842,13 @@
         <v>25.27101396438917</v>
       </c>
       <c r="S37" t="n">
-        <v>9.794689399460985</v>
+        <v>9.794689399460987</v>
       </c>
       <c r="T37" t="n">
         <v>2.40141054655538</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>12.83182030453995</v>
       </c>
       <c r="I38" t="n">
-        <v>48.30452847950952</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J38" t="n">
         <v>106.3429472547246</v>
@@ -33918,13 +33918,13 @@
         <v>135.3049905931297</v>
       </c>
       <c r="R38" t="n">
-        <v>78.70590330331339</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S38" t="n">
         <v>28.5517007386505</v>
       </c>
       <c r="T38" t="n">
-        <v>5.484808337177948</v>
+        <v>5.484808337177949</v>
       </c>
       <c r="U38" t="n">
         <v>0.1002363602453993</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H39" t="n">
-        <v>6.474553742160015</v>
+        <v>6.474553742160016</v>
       </c>
       <c r="I39" t="n">
         <v>23.08140185102458</v>
@@ -33982,7 +33982,7 @@
         <v>145.559846959869</v>
       </c>
       <c r="M39" t="n">
-        <v>169.8614757877311</v>
+        <v>169.8614757877312</v>
       </c>
       <c r="N39" t="n">
         <v>174.3572036132365</v>
@@ -33994,7 +33994,7 @@
         <v>128.015041247122</v>
       </c>
       <c r="Q39" t="n">
-        <v>85.57466490091964</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R39" t="n">
         <v>41.62297128701962</v>
@@ -34046,31 +34046,31 @@
         <v>0.5620322555767913</v>
       </c>
       <c r="H40" t="n">
-        <v>4.996977690491838</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I40" t="n">
         <v>16.9018427404366</v>
       </c>
       <c r="J40" t="n">
-        <v>39.73568046927914</v>
+        <v>39.73568046927915</v>
       </c>
       <c r="K40" t="n">
-        <v>65.29792932973992</v>
+        <v>65.29792932973993</v>
       </c>
       <c r="L40" t="n">
-        <v>83.55886825184405</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M40" t="n">
-        <v>88.10111075373281</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N40" t="n">
-        <v>86.00626325567394</v>
+        <v>86.00626325567396</v>
       </c>
       <c r="O40" t="n">
-        <v>79.44070463370866</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97524661994207</v>
+        <v>67.97524661994208</v>
       </c>
       <c r="Q40" t="n">
         <v>47.06253732834386</v>
@@ -34079,13 +34079,13 @@
         <v>25.27101396438917</v>
       </c>
       <c r="S40" t="n">
-        <v>9.794689399460985</v>
+        <v>9.794689399460987</v>
       </c>
       <c r="T40" t="n">
         <v>2.40141054655538</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>12.83182030453995</v>
       </c>
       <c r="I41" t="n">
-        <v>48.30452847950952</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J41" t="n">
         <v>106.3429472547246</v>
@@ -34155,7 +34155,7 @@
         <v>135.3049905931297</v>
       </c>
       <c r="R41" t="n">
-        <v>78.70590330331339</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S41" t="n">
         <v>28.5517007386505</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H42" t="n">
         <v>6.474553742160015</v>
@@ -34231,7 +34231,7 @@
         <v>128.015041247122</v>
       </c>
       <c r="Q42" t="n">
-        <v>85.57466490091964</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R42" t="n">
         <v>41.62297128701962</v>
@@ -34283,7 +34283,7 @@
         <v>0.5620322555767913</v>
       </c>
       <c r="H43" t="n">
-        <v>4.996977690491838</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I43" t="n">
         <v>16.9018427404366</v>
@@ -34295,16 +34295,16 @@
         <v>65.29792932973992</v>
       </c>
       <c r="L43" t="n">
-        <v>83.55886825184405</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M43" t="n">
-        <v>88.10111075373281</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N43" t="n">
         <v>86.00626325567394</v>
       </c>
       <c r="O43" t="n">
-        <v>79.44070463370866</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P43" t="n">
         <v>67.97524661994207</v>
@@ -34322,7 +34322,7 @@
         <v>2.40141054655538</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>12.83182030453995</v>
       </c>
       <c r="I44" t="n">
-        <v>48.30452847950953</v>
+        <v>48.30452847950952</v>
       </c>
       <c r="J44" t="n">
         <v>106.3429472547246</v>
@@ -34392,7 +34392,7 @@
         <v>135.3049905931297</v>
       </c>
       <c r="R44" t="n">
-        <v>78.70590330331341</v>
+        <v>78.70590330331339</v>
       </c>
       <c r="S44" t="n">
         <v>28.5517007386505</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6703897607686119</v>
+        <v>0.6703897607686118</v>
       </c>
       <c r="H45" t="n">
         <v>6.474553742160015</v>
@@ -34468,7 +34468,7 @@
         <v>128.015041247122</v>
       </c>
       <c r="Q45" t="n">
-        <v>85.57466490091966</v>
+        <v>85.57466490091964</v>
       </c>
       <c r="R45" t="n">
         <v>41.62297128701962</v>
@@ -34520,7 +34520,7 @@
         <v>0.5620322555767913</v>
       </c>
       <c r="H46" t="n">
-        <v>4.996977690491839</v>
+        <v>4.996977690491838</v>
       </c>
       <c r="I46" t="n">
         <v>16.9018427404366</v>
@@ -34532,16 +34532,16 @@
         <v>65.29792932973992</v>
       </c>
       <c r="L46" t="n">
-        <v>83.55886825184406</v>
+        <v>83.55886825184405</v>
       </c>
       <c r="M46" t="n">
-        <v>88.10111075373283</v>
+        <v>88.10111075373281</v>
       </c>
       <c r="N46" t="n">
         <v>86.00626325567394</v>
       </c>
       <c r="O46" t="n">
-        <v>79.44070463370868</v>
+        <v>79.44070463370866</v>
       </c>
       <c r="P46" t="n">
         <v>67.97524661994207</v>
@@ -34559,7 +34559,7 @@
         <v>2.40141054655538</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0306563048496432</v>
+        <v>0.03065630484964319</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
